--- a/book/calculation_examples/concrete/Images/global dimensioning beam concrete.xlsx
+++ b/book/calculation_examples/concrete/Images/global dimensioning beam concrete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roel\SDE-local-clone-github\Structural_Design_Essentials\book\calculation_examples\concrete\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13C5AE3-BAD8-4C02-97E4-4CDED092DDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B849AA-BD49-43D6-AF6D-6F0A83B59D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>b/3</t>
   </si>
@@ -147,12 +147,50 @@
       <t xml:space="preserve"> L / 15</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">  z</t>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   d   h</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +240,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -229,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -248,20 +294,23 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -282,6 +331,346 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>512099</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>85044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>149469</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="354" name="Group 353">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E4AAA51-9EB0-0817-A8CF-91AB5C770FAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10875299" y="11872598"/>
+          <a:ext cx="246970" cy="1035975"/>
+          <a:chOff x="11792630" y="11872598"/>
+          <a:chExt cx="246970" cy="1035975"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="346" name="Straight Connector 345">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E474E8-ECC4-7407-9D41-9D2A8C594389}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11796714" y="11872598"/>
+            <a:ext cx="0" cy="1035975"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="348" name="Straight Arrow Connector 347">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE13A56-7732-5425-BDFC-6B145A6DC364}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="11792630" y="11876000"/>
+            <a:ext cx="244928" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="sm" len="sm"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="349" name="Straight Arrow Connector 348">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77856F2B-303C-75E4-F406-74320553C88E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="11792630" y="11938819"/>
+            <a:ext cx="244928" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="sm" len="sm"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="350" name="Straight Arrow Connector 349">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B630135C-A283-9D60-2665-24622FFA8221}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="11792630" y="12000225"/>
+            <a:ext cx="244928" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="sm" len="sm"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="351" name="Straight Arrow Connector 350">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E47190E4-A309-AB48-56BE-46D956CB3EBF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="11792630" y="12063045"/>
+            <a:ext cx="117700" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="triangle" w="sm" len="sm"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="353" name="Freeform: Shape 352">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41E6E510-C971-CD48-57B1-E771F0D242FA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11796346" y="11875477"/>
+            <a:ext cx="243254" cy="252046"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="csX0" fmla="*/ 243254 w 243254"/>
+              <a:gd name="csY0" fmla="*/ 0 h 252046"/>
+              <a:gd name="csX1" fmla="*/ 243254 w 243254"/>
+              <a:gd name="csY1" fmla="*/ 123092 h 252046"/>
+              <a:gd name="csX2" fmla="*/ 0 w 243254"/>
+              <a:gd name="csY2" fmla="*/ 252046 h 252046"/>
+              <a:gd name="csX3" fmla="*/ 0 w 243254"/>
+              <a:gd name="csY3" fmla="*/ 252046 h 252046"/>
+              <a:gd name="csX4" fmla="*/ 0 w 243254"/>
+              <a:gd name="csY4" fmla="*/ 252046 h 252046"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="csX0" y="csY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="csX1" y="csY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="csX2" y="csY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="csX3" y="csY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="csX4" y="csY4"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="243254" h="252046">
+                <a:moveTo>
+                  <a:pt x="243254" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="243254" y="123092"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="252046"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="252046"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="252046"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+          <a:ln w="6350"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="nl-NL" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -2668,8 +3057,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6031573" y="7713573"/>
-          <a:ext cx="120268" cy="88992"/>
+          <a:off x="6044825" y="7725551"/>
+          <a:ext cx="123581" cy="89502"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -2823,8 +3212,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3900638" y="7708859"/>
-          <a:ext cx="113016" cy="88992"/>
+          <a:off x="3900638" y="7720837"/>
+          <a:ext cx="116329" cy="89502"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -2978,8 +3367,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1784054" y="7709158"/>
-          <a:ext cx="115632" cy="88992"/>
+          <a:off x="1777428" y="7721136"/>
+          <a:ext cx="112319" cy="89502"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3133,8 +3522,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6035145" y="4545941"/>
-          <a:ext cx="120268" cy="88992"/>
+          <a:off x="6048397" y="4551803"/>
+          <a:ext cx="123581" cy="89501"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3288,8 +3677,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3904210" y="4541227"/>
-          <a:ext cx="113016" cy="88992"/>
+          <a:off x="3904210" y="4547089"/>
+          <a:ext cx="116329" cy="89501"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3443,8 +3832,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1787626" y="4541526"/>
-          <a:ext cx="115632" cy="88992"/>
+          <a:off x="1781000" y="4547388"/>
+          <a:ext cx="112319" cy="89501"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3598,8 +3987,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6038717" y="1384262"/>
-          <a:ext cx="120268" cy="88991"/>
+          <a:off x="6051969" y="1384007"/>
+          <a:ext cx="123581" cy="89501"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3753,8 +4142,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3907782" y="1379548"/>
-          <a:ext cx="113016" cy="88991"/>
+          <a:off x="3907782" y="1379293"/>
+          <a:ext cx="116329" cy="89501"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3908,8 +4297,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1791198" y="1379847"/>
-          <a:ext cx="115632" cy="88991"/>
+          <a:off x="1784572" y="1379592"/>
+          <a:ext cx="112319" cy="89501"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -4063,8 +4452,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5016712" y="1415816"/>
-          <a:ext cx="1061900" cy="1612752"/>
+          <a:off x="5023338" y="1415561"/>
+          <a:ext cx="1068526" cy="1616320"/>
           <a:chOff x="9737481" y="2006111"/>
           <a:chExt cx="1071457" cy="1554774"/>
         </a:xfrm>
@@ -4651,8 +5040,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1862185" y="7835379"/>
-          <a:ext cx="1004139" cy="115989"/>
+          <a:off x="1852246" y="7847867"/>
+          <a:ext cx="1007452" cy="116498"/>
           <a:chOff x="1845102" y="7537205"/>
           <a:chExt cx="1009834" cy="107706"/>
         </a:xfrm>
@@ -4768,8 +5157,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="978902" y="6871202"/>
-          <a:ext cx="1505881" cy="166685"/>
+          <a:off x="971002" y="6881906"/>
+          <a:ext cx="1508429" cy="166685"/>
           <a:chOff x="1845102" y="7537205"/>
           <a:chExt cx="1009834" cy="107706"/>
         </a:xfrm>
@@ -4885,8 +5274,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="2865355" y="7715346"/>
-          <a:ext cx="79611" cy="66941"/>
+          <a:off x="2858729" y="7727324"/>
+          <a:ext cx="82924" cy="67451"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -5091,8 +5480,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="4982696" y="1382465"/>
-          <a:ext cx="79610" cy="66940"/>
+          <a:off x="4989322" y="1382210"/>
+          <a:ext cx="82923" cy="67450"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -6693,8 +7082,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="1825057" y="6136685"/>
-          <a:ext cx="79611" cy="66941"/>
+          <a:off x="1818431" y="6145604"/>
+          <a:ext cx="76298" cy="67452"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -6899,7 +7288,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9902765" y="7115544"/>
+          <a:off x="9899452" y="7127012"/>
           <a:ext cx="415095" cy="384817"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
@@ -7176,8 +7565,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9411646" y="7114244"/>
-          <a:ext cx="433299" cy="340811"/>
+          <a:off x="9411646" y="7125712"/>
+          <a:ext cx="429986" cy="340811"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -7413,8 +7802,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11423898" y="4612591"/>
-          <a:ext cx="416970" cy="379610"/>
+          <a:off x="11413959" y="4618962"/>
+          <a:ext cx="413657" cy="380629"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -7690,8 +8079,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13414271" y="4612591"/>
-          <a:ext cx="420029" cy="379610"/>
+          <a:off x="13394393" y="4618962"/>
+          <a:ext cx="416716" cy="380629"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -8018,8 +8407,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11414170" y="5231636"/>
-          <a:ext cx="416970" cy="379258"/>
+          <a:off x="11404231" y="5239537"/>
+          <a:ext cx="413657" cy="379258"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -8295,8 +8684,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13404543" y="5170665"/>
-          <a:ext cx="420029" cy="379434"/>
+          <a:off x="13384665" y="5178055"/>
+          <a:ext cx="416716" cy="379945"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -8953,8 +9342,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9411646" y="4609346"/>
-          <a:ext cx="433299" cy="338208"/>
+          <a:off x="9411646" y="4615717"/>
+          <a:ext cx="429986" cy="338718"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -9190,8 +9579,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9417089" y="5175640"/>
-          <a:ext cx="433299" cy="338207"/>
+          <a:off x="9417089" y="5183030"/>
+          <a:ext cx="429986" cy="338718"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -9764,8 +10153,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="10008362" y="1605960"/>
-          <a:ext cx="1063797" cy="325887"/>
+          <a:off x="10000717" y="1606724"/>
+          <a:ext cx="1065836" cy="325887"/>
           <a:chOff x="9413447" y="2690132"/>
           <a:chExt cx="1064052" cy="325887"/>
         </a:xfrm>
@@ -11209,8 +11598,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="13562742" y="1727686"/>
-          <a:ext cx="1163725" cy="179621"/>
+          <a:off x="13535219" y="1728450"/>
+          <a:ext cx="1165764" cy="179621"/>
           <a:chOff x="9299804" y="2690133"/>
           <a:chExt cx="1177696" cy="179621"/>
         </a:xfrm>
@@ -12249,8 +12638,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="10059648" y="1733549"/>
-          <a:ext cx="1163725" cy="179615"/>
+          <a:off x="10052003" y="1734313"/>
+          <a:ext cx="1165764" cy="179615"/>
           <a:chOff x="9299804" y="2690139"/>
           <a:chExt cx="1177696" cy="179615"/>
         </a:xfrm>
@@ -12603,8 +12992,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11423898" y="8356330"/>
-          <a:ext cx="416970" cy="396175"/>
+          <a:off x="11413959" y="8370346"/>
+          <a:ext cx="413657" cy="401145"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -12931,8 +13320,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11414170" y="8991941"/>
-          <a:ext cx="416970" cy="412388"/>
+          <a:off x="11404231" y="9011437"/>
+          <a:ext cx="413657" cy="417358"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -13208,8 +13597,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13404543" y="8947535"/>
-          <a:ext cx="420029" cy="404282"/>
+          <a:off x="13384665" y="8967031"/>
+          <a:ext cx="416716" cy="409252"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -13485,8 +13874,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9411646" y="8353085"/>
-          <a:ext cx="433299" cy="354774"/>
+          <a:off x="9411646" y="8367101"/>
+          <a:ext cx="429986" cy="359234"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -13722,8 +14111,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9417089" y="8935944"/>
-          <a:ext cx="433299" cy="363056"/>
+          <a:off x="9417089" y="8954930"/>
+          <a:ext cx="429986" cy="368025"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -14012,8 +14401,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11417482" y="9668128"/>
-          <a:ext cx="416970" cy="412387"/>
+          <a:off x="11407543" y="9693103"/>
+          <a:ext cx="413657" cy="417357"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -14289,8 +14678,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13407855" y="9668128"/>
-          <a:ext cx="420029" cy="404281"/>
+          <a:off x="13387977" y="9693103"/>
+          <a:ext cx="416716" cy="409251"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -14947,8 +15336,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9420401" y="9643279"/>
-          <a:ext cx="433299" cy="363054"/>
+          <a:off x="9420401" y="9668254"/>
+          <a:ext cx="429986" cy="368024"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -15184,8 +15573,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15332726" y="9643279"/>
-          <a:ext cx="420029" cy="404281"/>
+          <a:off x="15299596" y="9668254"/>
+          <a:ext cx="420029" cy="409251"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -15543,6 +15932,2167 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BF734B0-D8DD-448F-96B6-3B35E9D25D2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9515475" y="1310309"/>
+          <a:ext cx="727213" cy="1004680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>308882</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>195945</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>195945</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6D3F3DE-831B-4299-9B4B-38AE84D5E35B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9452882" y="2606184"/>
+          <a:ext cx="875531" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>385082</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>385082</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>83005</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3323CFC4-B2DF-43BD-B73A-5BC4AE721CB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9529082" y="2515015"/>
+          <a:ext cx="0" cy="177012"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>493934</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>493934</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>83005</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81FEF195-59EC-4A85-BEA0-182EDAAF2E7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10250847" y="2515015"/>
+          <a:ext cx="0" cy="177012"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>336096</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>159205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>422933</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60F3EF87-FBB6-41BD-B7AA-085ECCF49818}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9480096" y="2569444"/>
+          <a:ext cx="86837" cy="66793"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>450391</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>159205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>537228</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF10F4FA-E62E-4964-B42E-99FD72D6F8FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10207304" y="2569444"/>
+          <a:ext cx="86837" cy="66793"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7491</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>2896</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>333378</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>81063</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="50" name="Group 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58720178-BA80-43FF-A271-778541780168}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="16200000">
+          <a:off x="9981667" y="12179474"/>
+          <a:ext cx="1103936" cy="325887"/>
+          <a:chOff x="9413447" y="2690132"/>
+          <a:chExt cx="1064052" cy="325887"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="56" name="Straight Connector 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE8D0D1-A7AD-24C5-38DF-DBDAFD86F196}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipV="1">
+            <a:off x="9945473" y="2249277"/>
+            <a:ext cx="0" cy="1064052"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="81" name="Straight Connector 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C57DCF-BCEE-5BE2-FDC0-B32D9D1FEDC2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9476480" y="2690140"/>
+            <a:ext cx="0" cy="179615"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="82" name="Straight Connector 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F86261C-9C27-FAD9-3939-D83DDBE758E0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="10236990" y="2853076"/>
+            <a:ext cx="325887" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="83" name="Straight Connector 82">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4D7B97-4AC7-1930-0A1C-C8BE0F1B9CE1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="9427495" y="2744562"/>
+            <a:ext cx="86837" cy="69396"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="84" name="Straight Connector 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47412897-6CB0-733E-E7E1-E010170D2B8C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="10356391" y="2744562"/>
+            <a:ext cx="86837" cy="69396"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>429986</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="Flowchart: Alternate Process 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F22BFD0E-FFED-4DBF-8B84-AF780E13EDB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9573986" y="1364738"/>
+          <a:ext cx="618356" cy="898544"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>473528</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>135516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>519247</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>181235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="Oval 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB2CFB0-B82A-454F-9787-3800DE5A8723}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9617528" y="1369625"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>23948</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>135516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>69667</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>181235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="Oval 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD373F7-9066-431B-8743-D8236B0D3EE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9780861" y="1369625"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180158</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>135516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>225877</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>181235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="Oval 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2663D38-1063-4A67-A9B5-C43D0CBEEDF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9937071" y="1369625"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>340178</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>135516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>385897</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>181235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="Oval 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AC4A099-74C7-49C3-9C39-5B94B52E4E6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10097091" y="1369625"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>469718</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>181236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>515437</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>36455</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="Oval 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7925E4DC-6963-4166-8947-E41699A80FE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9613718" y="2210475"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>20138</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>181236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>65857</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>36455</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="Oval 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4709F7DB-C01D-4272-B7F5-BF2DD4F4EE67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9777051" y="2210475"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>176348</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>181236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>222067</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>36455</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="Oval 173">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24BCFFD6-5675-4A79-A82E-A3B6DBD08625}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9933261" y="2210475"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>336368</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>181236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>382087</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>36455</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="Oval 174">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF7801F-2138-40C7-AB9F-B40353BABF2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10093281" y="2210475"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>430739</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>17993</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466739</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>53993</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="226" name="Oval 225">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F00B3723-BB7D-4847-88F3-C085D5C78248}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9574739" y="1649667"/>
+          <a:ext cx="36000" cy="36000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>392639</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>17993</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>428639</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>53993</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="227" name="Oval 226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C6903DF-F4AA-47DC-AF73-58F40189AAD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10149552" y="1649667"/>
+          <a:ext cx="36000" cy="36000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>433666</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>102987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>469666</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>138987</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="228" name="Oval 227">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{278CB836-86E4-4607-B02E-497DA2F461BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9577666" y="1933444"/>
+          <a:ext cx="36000" cy="36000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>395566</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>102987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>431566</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>138987</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="229" name="Oval 228">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F172290-0DEE-44E4-A7FF-61D8E5EFF798}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10152479" y="1933444"/>
+          <a:ext cx="36000" cy="36000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>181877</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>7385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>361492</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>185480</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="296" name="Group 295">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F639F5-6A98-495A-8459-1B638E2C7DBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="16200000">
+          <a:off x="10032953" y="12307063"/>
+          <a:ext cx="1203864" cy="179615"/>
+          <a:chOff x="9299804" y="2690139"/>
+          <a:chExt cx="1177696" cy="179615"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="297" name="Straight Connector 296">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F1ECE9-B2BC-2A8E-F6E0-B1B6A2C5BCD5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipV="1">
+            <a:off x="9888652" y="2192455"/>
+            <a:ext cx="0" cy="1177696"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="298" name="Straight Connector 297">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F3AFF5-2EE7-6239-6374-A5FA4AF82F9C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9387570" y="2690139"/>
+            <a:ext cx="0" cy="179615"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="299" name="Straight Connector 298">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A78FAC3C-324F-2A18-8FD9-A464CF45DB13}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="9338584" y="2744562"/>
+            <a:ext cx="86837" cy="69396"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="300" name="Straight Connector 299">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{552673BF-9062-9D99-2FC8-085AB418499B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="10356391" y="2744562"/>
+            <a:ext cx="86837" cy="69396"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>521677</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>13282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>13282</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="301" name="Straight Connector 300">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08057F2-61DC-4750-AA3C-435B0F834042}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10275277" y="12826605"/>
+          <a:ext cx="1154723" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>403698</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>79443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>44586</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>79443</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="302" name="Straight Connector 301">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{353A5E0A-344D-4C75-924B-EDA4AB115DB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10160611" y="1313552"/>
+          <a:ext cx="253801" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>503922</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>169876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>169876</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="303" name="Straight Connector 302">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08C77CA6-0791-83E1-13AD-4A6F8DAE255B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10257522" y="11957430"/>
+          <a:ext cx="890538" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>192989</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>371499</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>83924</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="320" name="Group 319">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB23793E-CD94-0B23-621F-466744B9F85C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="16200000">
+          <a:off x="10751486" y="12304434"/>
+          <a:ext cx="1007116" cy="178510"/>
+          <a:chOff x="9413446" y="2690140"/>
+          <a:chExt cx="913694" cy="179615"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="321" name="Straight Connector 320">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31624938-89E1-3E9F-6F34-C3CED0C8EAD6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipV="1">
+            <a:off x="9870293" y="2324457"/>
+            <a:ext cx="0" cy="913694"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="322" name="Straight Connector 321">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1132B89-4B94-724D-D02A-514CBD5BB293}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9476480" y="2690140"/>
+            <a:ext cx="0" cy="179615"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="323" name="Straight Connector 322">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{705D4716-A352-B1A3-B9FE-6CADCE8B82AE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="10190155" y="2761727"/>
+            <a:ext cx="143173" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="324" name="Straight Connector 323">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{701ED45F-9D1E-985B-CFC9-1CFA45606BF6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="9427495" y="2744562"/>
+            <a:ext cx="86837" cy="69396"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="325" name="Straight Connector 324">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF47BAA-F497-3618-A01B-1E6FCD3147ED}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="10218197" y="2744571"/>
+            <a:ext cx="86837" cy="69396"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>135984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>14064</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="342" name="Arrow: Right 341">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EA34434-58A2-DE24-302D-B7DD14C4DA6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10873740" y="11923538"/>
+          <a:ext cx="255270" cy="77372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="343" name="Arrow: Right 342">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9FDA8F-6D51-30DD-1938-4D586D4E5C8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10873740" y="12900660"/>
+          <a:ext cx="255270" cy="80010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15814,10 +18364,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A5:AB51"/>
+  <dimension ref="A5:AB66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+    <sheetView tabSelected="1" topLeftCell="P57" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
+      <selection activeCell="U64" sqref="U64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15832,22 +18382,22 @@
       <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10" t="s">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="10"/>
+      <c r="K5" s="13"/>
       <c r="L5" s="6" t="s">
         <v>0</v>
       </c>
@@ -15861,12 +18411,12 @@
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -15879,24 +18429,24 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
     </row>
     <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="2"/>
       <c r="V28" s="8"/>
     </row>
@@ -15915,13 +18465,13 @@
       </c>
     </row>
     <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+      <c r="A37" s="14"/>
     </row>
     <row r="43" spans="1:25" ht="17.25" x14ac:dyDescent="0.3">
       <c r="V43" s="1" t="s">
@@ -15929,38 +18479,38 @@
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="P44" s="14" t="s">
+      <c r="P44" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="P45" s="14"/>
+      <c r="P45" s="11"/>
     </row>
     <row r="46" spans="1:25" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="P46" s="14"/>
+      <c r="P46" s="11"/>
       <c r="Y46" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="P47" s="14" t="s">
+      <c r="P47" s="11" t="s">
         <v>11</v>
       </c>
       <c r="V47" s="8"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="P48" s="14"/>
+      <c r="P48" s="11"/>
       <c r="S48" s="7"/>
       <c r="V48" s="7"/>
     </row>
     <row r="49" spans="16:28" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="P49" s="14"/>
+      <c r="P49" s="11"/>
       <c r="AB49" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="50" spans="16:28" x14ac:dyDescent="0.25">
-      <c r="P50" s="14" t="s">
+      <c r="P50" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -15968,13 +18518,36 @@
       <c r="S51" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="V51" s="13" t="s">
+      <c r="V51" s="10" t="s">
         <v>9</v>
       </c>
       <c r="Y51" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Z51" s="12"/>
+    </row>
+    <row r="61" spans="16:28" ht="18" x14ac:dyDescent="0.35">
+      <c r="T61" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="16:28" x14ac:dyDescent="0.25">
+      <c r="S62" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T62" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="18:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="T65" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R66" s="9" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/book/calculation_examples/concrete/Images/global dimensioning beam concrete.xlsx
+++ b/book/calculation_examples/concrete/Images/global dimensioning beam concrete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roel\SDE-local-clone-github\Structural_Design_Essentials\book\calculation_examples\concrete\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B849AA-BD49-43D6-AF6D-6F0A83B59D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361A38F1-8EC8-4363-A16A-63DB84A09A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,75 +79,6 @@
     <t>(c)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">h </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>≈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.65"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> L / 10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">h </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>≈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.65"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> L / 12.5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">h </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>≈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.65"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> L / 15</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">  z</t>
   </si>
   <si>
@@ -184,6 +115,81 @@
   </si>
   <si>
     <t xml:space="preserve">   d   h</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">h </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>≈</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12.65"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> L / 10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">h </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>≈</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12.65"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> L / 12.5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">h </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>≈</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12.65"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> L / 15</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -229,24 +235,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="12.65"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -275,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -300,6 +308,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -309,8 +320,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -357,8 +368,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10875299" y="11872598"/>
-          <a:ext cx="246970" cy="1035975"/>
+          <a:off x="10875299" y="11966801"/>
+          <a:ext cx="246970" cy="1044349"/>
           <a:chOff x="11792630" y="11872598"/>
           <a:chExt cx="246970" cy="1035975"/>
         </a:xfrm>
@@ -3057,8 +3068,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6044825" y="7725551"/>
-          <a:ext cx="123581" cy="89502"/>
+          <a:off x="6044825" y="7788353"/>
+          <a:ext cx="123581" cy="91595"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3212,8 +3223,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3900638" y="7720837"/>
-          <a:ext cx="116329" cy="89502"/>
+          <a:off x="3900638" y="7783639"/>
+          <a:ext cx="116329" cy="91595"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3367,8 +3378,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1777428" y="7721136"/>
-          <a:ext cx="112319" cy="89502"/>
+          <a:off x="1777428" y="7783938"/>
+          <a:ext cx="112319" cy="91595"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3522,8 +3533,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6048397" y="4551803"/>
-          <a:ext cx="123581" cy="89501"/>
+          <a:off x="6048397" y="4589484"/>
+          <a:ext cx="123581" cy="91595"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3677,8 +3688,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3904210" y="4547089"/>
-          <a:ext cx="116329" cy="89501"/>
+          <a:off x="3904210" y="4584770"/>
+          <a:ext cx="116329" cy="91595"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3832,8 +3843,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1781000" y="4547388"/>
-          <a:ext cx="112319" cy="89501"/>
+          <a:off x="1781000" y="4585069"/>
+          <a:ext cx="112319" cy="91595"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3987,8 +3998,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6051969" y="1384007"/>
-          <a:ext cx="123581" cy="89501"/>
+          <a:off x="6051969" y="1396567"/>
+          <a:ext cx="123581" cy="91595"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -4142,8 +4153,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3907782" y="1379293"/>
-          <a:ext cx="116329" cy="89501"/>
+          <a:off x="3907782" y="1391853"/>
+          <a:ext cx="116329" cy="91595"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -4297,8 +4308,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1784572" y="1379592"/>
-          <a:ext cx="112319" cy="89501"/>
+          <a:off x="1784572" y="1392152"/>
+          <a:ext cx="112319" cy="91595"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -4452,8 +4463,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5023338" y="1415561"/>
-          <a:ext cx="1068526" cy="1616320"/>
+          <a:off x="5023338" y="1428121"/>
+          <a:ext cx="1068526" cy="1630974"/>
           <a:chOff x="9737481" y="2006111"/>
           <a:chExt cx="1071457" cy="1554774"/>
         </a:xfrm>
@@ -5040,8 +5051,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1852246" y="7847867"/>
-          <a:ext cx="1007452" cy="116498"/>
+          <a:off x="1852246" y="7912762"/>
+          <a:ext cx="1007452" cy="118592"/>
           <a:chOff x="1845102" y="7537205"/>
           <a:chExt cx="1009834" cy="107706"/>
         </a:xfrm>
@@ -5157,8 +5168,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="971002" y="6881906"/>
-          <a:ext cx="1508429" cy="166685"/>
+          <a:off x="965769" y="6939474"/>
+          <a:ext cx="1518896" cy="166685"/>
           <a:chOff x="1845102" y="7537205"/>
           <a:chExt cx="1009834" cy="107706"/>
         </a:xfrm>
@@ -5274,8 +5285,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="2858729" y="7727324"/>
-          <a:ext cx="82924" cy="67451"/>
+          <a:off x="2858729" y="7790126"/>
+          <a:ext cx="82924" cy="69544"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -5480,8 +5491,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="4989322" y="1382210"/>
-          <a:ext cx="82923" cy="67450"/>
+          <a:off x="4989322" y="1394770"/>
+          <a:ext cx="82923" cy="69544"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -7082,8 +7093,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="1818431" y="6145604"/>
-          <a:ext cx="76298" cy="67452"/>
+          <a:off x="1818431" y="6195846"/>
+          <a:ext cx="76298" cy="69545"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -7288,7 +7299,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9899452" y="7127012"/>
+          <a:off x="9899452" y="7187721"/>
           <a:ext cx="415095" cy="384817"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
@@ -7565,7 +7576,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9411646" y="7125712"/>
+          <a:off x="9411646" y="7186421"/>
           <a:ext cx="429986" cy="340811"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
@@ -7802,8 +7813,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11413959" y="4618962"/>
-          <a:ext cx="413657" cy="380629"/>
+          <a:off x="11413959" y="4658737"/>
+          <a:ext cx="413657" cy="384816"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -8079,8 +8090,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13394393" y="4618962"/>
-          <a:ext cx="416716" cy="380629"/>
+          <a:off x="13394393" y="4658737"/>
+          <a:ext cx="416716" cy="384816"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -8407,7 +8418,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11404231" y="5239537"/>
+          <a:off x="11404231" y="5285592"/>
           <a:ext cx="413657" cy="379258"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
@@ -8684,8 +8695,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13384665" y="5178055"/>
-          <a:ext cx="416716" cy="379945"/>
+          <a:off x="13384665" y="5222017"/>
+          <a:ext cx="416716" cy="382038"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -9342,8 +9353,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9411646" y="4615717"/>
-          <a:ext cx="429986" cy="338718"/>
+          <a:off x="9411646" y="4655492"/>
+          <a:ext cx="429986" cy="340811"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -9579,8 +9590,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9417089" y="5183030"/>
-          <a:ext cx="429986" cy="338718"/>
+          <a:off x="9417089" y="5226992"/>
+          <a:ext cx="429986" cy="340811"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -10153,8 +10164,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="10000717" y="1606724"/>
-          <a:ext cx="1065836" cy="325887"/>
+          <a:off x="9996530" y="1623471"/>
+          <a:ext cx="1074210" cy="325887"/>
           <a:chOff x="9413447" y="2690132"/>
           <a:chExt cx="1064052" cy="325887"/>
         </a:xfrm>
@@ -11598,8 +11609,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="13535219" y="1728450"/>
-          <a:ext cx="1165764" cy="179621"/>
+          <a:off x="13531032" y="1745197"/>
+          <a:ext cx="1174138" cy="179621"/>
           <a:chOff x="9299804" y="2690133"/>
           <a:chExt cx="1177696" cy="179621"/>
         </a:xfrm>
@@ -12638,8 +12649,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="10052003" y="1734313"/>
-          <a:ext cx="1165764" cy="179615"/>
+          <a:off x="10047816" y="1751060"/>
+          <a:ext cx="1174138" cy="179615"/>
           <a:chOff x="9299804" y="2690139"/>
           <a:chExt cx="1177696" cy="179615"/>
         </a:xfrm>
@@ -12992,7 +13003,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11413959" y="8370346"/>
+          <a:off x="11413959" y="8441522"/>
           <a:ext cx="413657" cy="401145"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
@@ -13320,7 +13331,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11404231" y="9011437"/>
+          <a:off x="11404231" y="9084706"/>
           <a:ext cx="413657" cy="417358"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
@@ -13597,7 +13608,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13384665" y="8967031"/>
+          <a:off x="13384665" y="9040300"/>
           <a:ext cx="416716" cy="409252"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
@@ -13874,8 +13885,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9411646" y="8367101"/>
-          <a:ext cx="429986" cy="359234"/>
+          <a:off x="9411646" y="8438277"/>
+          <a:ext cx="429986" cy="357141"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -14111,7 +14122,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9417089" y="8954930"/>
+          <a:off x="9417089" y="9026106"/>
           <a:ext cx="429986" cy="368025"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
@@ -14401,7 +14412,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11407543" y="9693103"/>
+          <a:off x="11407543" y="9768466"/>
           <a:ext cx="413657" cy="417357"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
@@ -14678,7 +14689,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13387977" y="9693103"/>
+          <a:off x="13387977" y="9768466"/>
           <a:ext cx="416716" cy="409251"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
@@ -15336,7 +15347,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9420401" y="9668254"/>
+          <a:off x="9420401" y="9743617"/>
           <a:ext cx="429986" cy="368024"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
@@ -15573,7 +15584,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15299596" y="9668254"/>
+          <a:off x="15299596" y="9743617"/>
           <a:ext cx="420029" cy="409251"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
@@ -16297,8 +16308,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="9981667" y="12179474"/>
-          <a:ext cx="1103936" cy="325887"/>
+          <a:off x="9977480" y="12277864"/>
+          <a:ext cx="1112310" cy="325887"/>
           <a:chOff x="9413447" y="2690132"/>
           <a:chExt cx="1064052" cy="325887"/>
         </a:xfrm>
@@ -17405,8 +17416,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="10032953" y="12307063"/>
-          <a:ext cx="1203864" cy="179615"/>
+          <a:off x="10028766" y="12405453"/>
+          <a:ext cx="1212238" cy="179615"/>
           <a:chOff x="9299804" y="2690139"/>
           <a:chExt cx="1177696" cy="179615"/>
         </a:xfrm>
@@ -17764,8 +17775,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="10751486" y="12304434"/>
-          <a:ext cx="1007116" cy="178510"/>
+          <a:off x="10747299" y="12402824"/>
+          <a:ext cx="1015490" cy="178510"/>
           <a:chOff x="9413446" y="2690140"/>
           <a:chExt cx="913694" cy="179615"/>
         </a:xfrm>
@@ -18366,8 +18377,8 @@
   </sheetPr>
   <dimension ref="A5:AB66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P57" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
-      <selection activeCell="U64" sqref="U64"/>
+    <sheetView tabSelected="1" topLeftCell="P37" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="S54" sqref="S54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18382,22 +18393,22 @@
       <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13" t="s">
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="13"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="6" t="s">
         <v>0</v>
       </c>
@@ -18411,12 +18422,12 @@
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -18429,24 +18440,24 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
     </row>
     <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="2"/>
       <c r="V28" s="8"/>
     </row>
@@ -18465,21 +18476,21 @@
       </c>
     </row>
     <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
+      <c r="A37" s="15"/>
     </row>
     <row r="43" spans="1:25" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="V43" s="1" t="s">
-        <v>13</v>
+      <c r="V43" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="P44" s="11" t="s">
+      <c r="P44" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -18488,12 +18499,12 @@
     </row>
     <row r="46" spans="1:25" ht="17.25" x14ac:dyDescent="0.3">
       <c r="P46" s="11"/>
-      <c r="Y46" s="1" t="s">
-        <v>14</v>
+      <c r="Y46" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="P47" s="11" t="s">
+      <c r="P47" s="16" t="s">
         <v>11</v>
       </c>
       <c r="V47" s="8"/>
@@ -18505,12 +18516,12 @@
     </row>
     <row r="49" spans="16:28" ht="17.25" x14ac:dyDescent="0.3">
       <c r="P49" s="11"/>
-      <c r="AB49" s="1" t="s">
-        <v>15</v>
+      <c r="AB49" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="16:28" x14ac:dyDescent="0.25">
-      <c r="P50" s="11" t="s">
+      <c r="P50" s="16" t="s">
         <v>12</v>
       </c>
     </row>
@@ -18521,27 +18532,27 @@
       <c r="V51" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Y51" s="12" t="s">
+      <c r="Y51" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="Z51" s="12"/>
+      <c r="Z51" s="13"/>
     </row>
     <row r="61" spans="16:28" ht="18" x14ac:dyDescent="0.35">
       <c r="T61" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="16:28" x14ac:dyDescent="0.25">
       <c r="S62" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
-      <c r="T62" s="15" t="s">
-        <v>16</v>
+      <c r="T62" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="18:20" ht="18" x14ac:dyDescent="0.35">
       <c r="T65" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="18:20" x14ac:dyDescent="0.25">

--- a/book/calculation_examples/concrete/Images/global dimensioning beam concrete.xlsx
+++ b/book/calculation_examples/concrete/Images/global dimensioning beam concrete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roel\SDE-local-clone-github\Structural_Design_Essentials\book\calculation_examples\concrete\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361A38F1-8EC8-4363-A16A-63DB84A09A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0BEC79-3B2D-4B8F-A1C0-CBE717B468C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>b/3</t>
   </si>
@@ -191,6 +191,9 @@
       <t xml:space="preserve"> L / 15</t>
     </r>
   </si>
+  <si>
+    <t>h</t>
+  </si>
 </sst>
 </file>
 
@@ -312,6 +315,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -319,9 +325,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18104,6 +18107,1491 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="306" name="Rectangle 305">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F51E85F4-77CD-4F10-B41E-833DFBB03AD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9515475" y="1322614"/>
+          <a:ext cx="723900" cy="1015093"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>308882</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>195945</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>195945</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="326" name="Straight Connector 325">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4226BD7D-C383-452A-AB20-3752B65FD52C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9452882" y="2628902"/>
+          <a:ext cx="872218" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>385082</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>385082</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83005</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="327" name="Straight Connector 326">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E7A978-6D77-41CB-8B17-A85CE24606B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9529082" y="2537733"/>
+          <a:ext cx="0" cy="179615"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>493934</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>493934</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83005</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="339" name="Straight Connector 338">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A46F1E-65EB-48F9-AB9C-0E071C3CD50E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10247534" y="2537733"/>
+          <a:ext cx="0" cy="179615"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>336096</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>422933</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="340" name="Straight Connector 339">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9AD1622-017F-47C5-AF72-B3A04DE7CCBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9480096" y="2592162"/>
+          <a:ext cx="86837" cy="69396"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>450391</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>537228</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="341" name="Straight Connector 340">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB41726C-86B6-4197-BB0E-CDD7D6457A9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10203991" y="2592162"/>
+          <a:ext cx="86837" cy="69396"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>429986</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="357" name="Flowchart: Alternate Process 356">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A56F460-7A07-4153-AF83-0C121C4F1F5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9573986" y="1377043"/>
+          <a:ext cx="615043" cy="908957"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>473528</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>135516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>519247</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>181235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="358" name="Oval 357">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CAFFE4E-7F99-44D0-B5AE-06931C361821}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9617528" y="1381930"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>23948</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>135516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>69667</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>181235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="359" name="Oval 358">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D260CD6D-AAA6-484E-84EB-F999E66D721E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9777548" y="1381930"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>180158</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>135516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>225877</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>181235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="360" name="Oval 359">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B29C5413-7C6A-4332-A314-B5EC82A82AC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9933758" y="1381930"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>340178</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>135516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>385897</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>181235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="361" name="Oval 360">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCB31E0-C0B3-4B33-91E5-25B16A7E8C92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10093778" y="1381930"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>469718</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>181236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>515437</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>36455</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="362" name="Oval 361">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A92BF29-FF4E-4F71-8D31-4CAAE808C155}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9613718" y="2233193"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>20138</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>181236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>65857</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>36455</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="363" name="Oval 362">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F342F0B-A647-4F2A-A463-A6703CA0AE1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9773738" y="2233193"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>176348</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>181236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>222067</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>36455</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="364" name="Oval 363">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A032FA-4308-44A9-86AF-BD4266F82884}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9929948" y="2233193"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>336368</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>181236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>382087</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>36455</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="365" name="Oval 364">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32D6E9E0-1CD8-4826-8765-6DACD772297B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10089968" y="2233193"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>430739</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>17993</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466739</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>53993</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="366" name="Oval 365">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E07D93D7-3858-4BAD-9627-1B2A17D40136}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9574739" y="1667179"/>
+          <a:ext cx="36000" cy="36000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>392639</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>17993</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>428639</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>53993</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="367" name="Oval 366">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E05417F-C36E-40DA-9F07-41FAF41C4E1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10146239" y="1667179"/>
+          <a:ext cx="36000" cy="36000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>433666</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>102987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>469666</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>138987</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="368" name="Oval 367">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CD7A494-660D-4A5E-90ED-219A55E8B4B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9577666" y="1953558"/>
+          <a:ext cx="36000" cy="36000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>395566</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>102987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>431566</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>138987</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="369" name="Oval 368">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7406B9CD-1593-4FF9-B8EE-31FD25B1A20B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10149166" y="1953558"/>
+          <a:ext cx="36000" cy="36000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>6343</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>6343</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>185480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="371" name="Straight Connector 370">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{988B8F23-4859-39FF-EAAA-0E3DB87B5C71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12198343" y="1253799"/>
+          <a:ext cx="0" cy="1174138"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>524778</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>97979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>94793</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>97979</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="372" name="Straight Connector 371">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{437B6495-38DF-350E-4804-6C05DEC5674C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="12196986" y="2250628"/>
+          <a:ext cx="0" cy="179615"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>579202</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>60241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38998</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>146816</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="373" name="Straight Connector 372">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E882B2B-5A73-3E3D-B4B8-6794510E26FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="12153012" y="2311288"/>
+          <a:ext cx="86575" cy="69396"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>579202</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>41552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38998</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>128127</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="374" name="Straight Connector 373">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9077AD1-4D49-10B0-A1E8-229A6326C67F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="12153012" y="1296556"/>
+          <a:ext cx="86575" cy="69396"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>524774</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>81647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>94789</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>81647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="377" name="Straight Connector 376">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD21BE2F-7860-1E12-9305-37983197D812}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="12196982" y="1238253"/>
+          <a:ext cx="0" cy="179615"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -18377,8 +19865,8 @@
   </sheetPr>
   <dimension ref="A5:AB66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P37" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="S54" sqref="S54"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18393,22 +19881,22 @@
       <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="14"/>
+      <c r="K5" s="15"/>
       <c r="L5" s="6" t="s">
         <v>0</v>
       </c>
@@ -18417,17 +19905,20 @@
       <c r="S9" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="V9" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="Y9" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -18435,29 +19926,32 @@
       <c r="R13" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="U13" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="X13" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
     </row>
     <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="2"/>
       <c r="V28" s="8"/>
     </row>
@@ -18476,13 +19970,13 @@
       </c>
     </row>
     <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
+      <c r="A37" s="16"/>
     </row>
     <row r="43" spans="1:25" ht="17.25" x14ac:dyDescent="0.3">
       <c r="V43" s="8" t="s">
@@ -18490,7 +19984,7 @@
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="P44" s="16" t="s">
+      <c r="P44" s="13" t="s">
         <v>10</v>
       </c>
     </row>
@@ -18504,7 +19998,7 @@
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="P47" s="16" t="s">
+      <c r="P47" s="13" t="s">
         <v>11</v>
       </c>
       <c r="V47" s="8"/>
@@ -18521,7 +20015,7 @@
       </c>
     </row>
     <row r="50" spans="16:28" x14ac:dyDescent="0.25">
-      <c r="P50" s="16" t="s">
+      <c r="P50" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -18532,10 +20026,10 @@
       <c r="V51" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Y51" s="13" t="s">
+      <c r="Y51" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="Z51" s="13"/>
+      <c r="Z51" s="14"/>
     </row>
     <row r="61" spans="16:28" ht="18" x14ac:dyDescent="0.35">
       <c r="T61" s="1" t="s">

--- a/book/calculation_examples/concrete/Images/global dimensioning beam concrete.xlsx
+++ b/book/calculation_examples/concrete/Images/global dimensioning beam concrete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roel\SDE-local-clone-github\Structural_Design_Essentials\book\calculation_examples\concrete\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0BEC79-3B2D-4B8F-A1C0-CBE717B468C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7E8916-6CA9-4E36-8CDC-8BC9CF2C230E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>b/3</t>
   </si>
@@ -80,38 +80,6 @@
   </si>
   <si>
     <t xml:space="preserve">  z</t>
-  </si>
-  <si>
-    <r>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>c</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">   d   h</t>
@@ -199,7 +167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,14 +199,6 @@
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -371,8 +331,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10875299" y="11966801"/>
-          <a:ext cx="246970" cy="1044349"/>
+          <a:off x="10873440" y="11891398"/>
+          <a:ext cx="246041" cy="1009169"/>
           <a:chOff x="11792630" y="11872598"/>
           <a:chExt cx="246970" cy="1035975"/>
         </a:xfrm>
@@ -396,7 +356,7 @@
           <a:prstGeom prst="line">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln>
+          <a:ln w="12700">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -3071,8 +3031,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6044825" y="7788353"/>
-          <a:ext cx="123581" cy="91595"/>
+          <a:off x="6048542" y="7739633"/>
+          <a:ext cx="124510" cy="90002"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3226,8 +3186,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3900638" y="7783639"/>
-          <a:ext cx="116329" cy="91595"/>
+          <a:off x="3900638" y="7734919"/>
+          <a:ext cx="117258" cy="90002"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3381,8 +3341,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1777428" y="7783938"/>
-          <a:ext cx="112319" cy="91595"/>
+          <a:off x="1775569" y="7735218"/>
+          <a:ext cx="111390" cy="90002"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3536,8 +3496,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6048397" y="4589484"/>
-          <a:ext cx="123581" cy="91595"/>
+          <a:off x="6052114" y="4559880"/>
+          <a:ext cx="124510" cy="90002"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3691,8 +3651,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3904210" y="4584770"/>
-          <a:ext cx="116329" cy="91595"/>
+          <a:off x="3904210" y="4555166"/>
+          <a:ext cx="117258" cy="90002"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3846,8 +3806,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1781000" y="4585069"/>
-          <a:ext cx="112319" cy="91595"/>
+          <a:off x="1779141" y="4555465"/>
+          <a:ext cx="111390" cy="90002"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -4001,8 +3961,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6051969" y="1396567"/>
-          <a:ext cx="123581" cy="91595"/>
+          <a:off x="6055686" y="1386080"/>
+          <a:ext cx="124510" cy="90002"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -4156,8 +4116,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3907782" y="1391853"/>
-          <a:ext cx="116329" cy="91595"/>
+          <a:off x="3907782" y="1381366"/>
+          <a:ext cx="117258" cy="90002"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -4311,8 +4271,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1784572" y="1392152"/>
-          <a:ext cx="112319" cy="91595"/>
+          <a:off x="1782713" y="1381665"/>
+          <a:ext cx="111390" cy="90002"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -4466,8 +4426,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5023338" y="1428121"/>
-          <a:ext cx="1068526" cy="1630974"/>
+          <a:off x="5025197" y="1417634"/>
+          <a:ext cx="1070384" cy="1619823"/>
           <a:chOff x="9737481" y="2006111"/>
           <a:chExt cx="1071457" cy="1554774"/>
         </a:xfrm>
@@ -5054,8 +5014,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1852246" y="7912762"/>
-          <a:ext cx="1007452" cy="118592"/>
+          <a:off x="1849458" y="7862449"/>
+          <a:ext cx="1008381" cy="116999"/>
           <a:chOff x="1845102" y="7537205"/>
           <a:chExt cx="1009834" cy="107706"/>
         </a:xfrm>
@@ -5171,8 +5131,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="965769" y="6939474"/>
-          <a:ext cx="1518896" cy="166685"/>
+          <a:off x="967892" y="6894737"/>
+          <a:ext cx="1510931" cy="166685"/>
           <a:chOff x="1845102" y="7537205"/>
           <a:chExt cx="1009834" cy="107706"/>
         </a:xfrm>
@@ -5288,8 +5248,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="2858729" y="7790126"/>
-          <a:ext cx="82924" cy="69544"/>
+          <a:off x="2856870" y="7741406"/>
+          <a:ext cx="83854" cy="67951"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -5494,8 +5454,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="4989322" y="1394770"/>
-          <a:ext cx="82923" cy="69544"/>
+          <a:off x="4991181" y="1384283"/>
+          <a:ext cx="83852" cy="67951"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -7096,8 +7056,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="1818431" y="6195846"/>
-          <a:ext cx="76298" cy="69545"/>
+          <a:off x="1816572" y="6156684"/>
+          <a:ext cx="75369" cy="67952"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -7302,7 +7262,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9899452" y="7187721"/>
+          <a:off x="9898523" y="7140594"/>
           <a:ext cx="415095" cy="384817"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
@@ -7579,8 +7539,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9411646" y="7186421"/>
-          <a:ext cx="429986" cy="340811"/>
+          <a:off x="9411646" y="7139294"/>
+          <a:ext cx="429057" cy="340811"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -7816,8 +7776,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11413959" y="4658737"/>
-          <a:ext cx="413657" cy="384816"/>
+          <a:off x="11411171" y="4627540"/>
+          <a:ext cx="412728" cy="381630"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -8093,8 +8053,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13394393" y="4658737"/>
-          <a:ext cx="416716" cy="384816"/>
+          <a:off x="13388817" y="4627540"/>
+          <a:ext cx="415787" cy="381630"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -8421,8 +8381,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11404231" y="5285592"/>
-          <a:ext cx="413657" cy="379258"/>
+          <a:off x="11401443" y="5249616"/>
+          <a:ext cx="412728" cy="379258"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -8698,8 +8658,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13384665" y="5222017"/>
-          <a:ext cx="416716" cy="382038"/>
+          <a:off x="13379089" y="5187634"/>
+          <a:ext cx="415787" cy="380445"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -9356,8 +9316,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9411646" y="4655492"/>
-          <a:ext cx="429986" cy="340811"/>
+          <a:off x="9411646" y="4624295"/>
+          <a:ext cx="429057" cy="339218"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -9593,8 +9553,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9417089" y="5226992"/>
-          <a:ext cx="429986" cy="340811"/>
+          <a:off x="9417089" y="5192609"/>
+          <a:ext cx="429057" cy="339218"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -10167,8 +10127,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="9996530" y="1623471"/>
-          <a:ext cx="1074210" cy="325887"/>
+          <a:off x="9997857" y="1609798"/>
+          <a:ext cx="1067838" cy="325887"/>
           <a:chOff x="9413447" y="2690132"/>
           <a:chExt cx="1064052" cy="325887"/>
         </a:xfrm>
@@ -11612,8 +11572,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="13531032" y="1745197"/>
-          <a:ext cx="1174138" cy="179621"/>
+          <a:off x="13526784" y="1731524"/>
+          <a:ext cx="1167766" cy="179621"/>
           <a:chOff x="9299804" y="2690133"/>
           <a:chExt cx="1177696" cy="179621"/>
         </a:xfrm>
@@ -12652,8 +12612,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="10047816" y="1751060"/>
-          <a:ext cx="1174138" cy="179615"/>
+          <a:off x="10049143" y="1737387"/>
+          <a:ext cx="1167766" cy="179615"/>
           <a:chOff x="9299804" y="2690139"/>
           <a:chExt cx="1177696" cy="179615"/>
         </a:xfrm>
@@ -13006,8 +12966,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11413959" y="8441522"/>
-          <a:ext cx="413657" cy="401145"/>
+          <a:off x="11411171" y="8386430"/>
+          <a:ext cx="412728" cy="400216"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -13334,8 +13294,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11404231" y="9084706"/>
-          <a:ext cx="413657" cy="417358"/>
+          <a:off x="11401443" y="9027091"/>
+          <a:ext cx="412728" cy="416429"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -13611,8 +13571,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13384665" y="9040300"/>
-          <a:ext cx="416716" cy="409252"/>
+          <a:off x="13379089" y="8982685"/>
+          <a:ext cx="415787" cy="408323"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -13888,8 +13848,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9411646" y="8438277"/>
-          <a:ext cx="429986" cy="357141"/>
+          <a:off x="9411646" y="8383185"/>
+          <a:ext cx="429057" cy="357804"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -14125,8 +14085,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9417089" y="9026106"/>
-          <a:ext cx="429986" cy="368025"/>
+          <a:off x="9417089" y="8970085"/>
+          <a:ext cx="429057" cy="367095"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -14415,8 +14375,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11407543" y="9768466"/>
-          <a:ext cx="413657" cy="417357"/>
+          <a:off x="11404755" y="9708329"/>
+          <a:ext cx="412728" cy="416428"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -14692,8 +14652,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13387977" y="9768466"/>
-          <a:ext cx="416716" cy="409251"/>
+          <a:off x="13382401" y="9708329"/>
+          <a:ext cx="415787" cy="408322"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -15350,8 +15310,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9420401" y="9743617"/>
-          <a:ext cx="429986" cy="368024"/>
+          <a:off x="9420401" y="9683480"/>
+          <a:ext cx="429057" cy="367095"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -15587,8 +15547,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15299596" y="9743617"/>
-          <a:ext cx="420029" cy="409251"/>
+          <a:off x="15290303" y="9683480"/>
+          <a:ext cx="420029" cy="408322"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -16311,8 +16271,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="9977480" y="12277864"/>
-          <a:ext cx="1112310" cy="325887"/>
+          <a:off x="9993211" y="12184871"/>
+          <a:ext cx="1077130" cy="325887"/>
           <a:chOff x="9413447" y="2690132"/>
           <a:chExt cx="1064052" cy="325887"/>
         </a:xfrm>
@@ -17419,8 +17379,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="10028766" y="12405453"/>
-          <a:ext cx="1212238" cy="179615"/>
+          <a:off x="10044497" y="12312460"/>
+          <a:ext cx="1177058" cy="179615"/>
           <a:chOff x="9299804" y="2690139"/>
           <a:chExt cx="1177696" cy="179615"/>
         </a:xfrm>
@@ -17589,13 +17549,13 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>521677</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>13282</xdr:rowOff>
+      <xdr:rowOff>17928</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>13282</xdr:rowOff>
+      <xdr:rowOff>17928</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -17610,8 +17570,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10275277" y="12826605"/>
-          <a:ext cx="1154723" cy="0"/>
+          <a:off x="10274348" y="12823245"/>
+          <a:ext cx="1152864" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -17778,8 +17738,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="10747299" y="12402824"/>
-          <a:ext cx="1015490" cy="178510"/>
+          <a:off x="10762101" y="12309831"/>
+          <a:ext cx="980310" cy="178510"/>
           <a:chOff x="9413446" y="2690140"/>
           <a:chExt cx="913694" cy="179615"/>
         </a:xfrm>
@@ -17985,14 +17945,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>407126</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>135984</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>156210</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>52796</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>14064</xdr:rowOff>
     </xdr:to>
@@ -18009,8 +17969,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10873740" y="11923538"/>
-          <a:ext cx="255270" cy="77372"/>
+          <a:off x="11379926" y="12017741"/>
+          <a:ext cx="255270" cy="79466"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -18048,14 +18008,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>407126</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>156210</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>52796</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
@@ -18072,8 +18032,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10873740" y="12900660"/>
-          <a:ext cx="255270" cy="80010"/>
+          <a:off x="11379926" y="12889774"/>
+          <a:ext cx="255270" cy="79466"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -19592,6 +19552,142 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>13939</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>46463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>408878</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>139390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="344" name="TextBox 343">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46CB3636-9FA2-B5CB-579C-957924A6DA63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11592622" y="11852817"/>
+          <a:ext cx="394939" cy="292719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1100"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1100" baseline="-25000"/>
+            <a:t>c</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>3717</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>73412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>398656</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>166338</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="345" name="TextBox 344">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9060E56-2388-CBC1-4421-4CA21A6B57AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11582400" y="12678936"/>
+          <a:ext cx="394939" cy="292719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1100"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1100" baseline="-25000"/>
+            <a:t>s</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -19865,8 +19961,8 @@
   </sheetPr>
   <dimension ref="A5:AB66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" topLeftCell="M54" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="W62" sqref="W62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19906,7 +20002,7 @@
         <v>7</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y9" s="9" t="s">
         <v>6</v>
@@ -19980,7 +20076,7 @@
     </row>
     <row r="43" spans="1:25" ht="17.25" x14ac:dyDescent="0.3">
       <c r="V43" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
@@ -19994,7 +20090,7 @@
     <row r="46" spans="1:25" ht="17.25" x14ac:dyDescent="0.3">
       <c r="P46" s="11"/>
       <c r="Y46" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
@@ -20011,7 +20107,7 @@
     <row r="49" spans="16:28" ht="17.25" x14ac:dyDescent="0.3">
       <c r="P49" s="11"/>
       <c r="AB49" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="16:28" x14ac:dyDescent="0.25">
@@ -20031,25 +20127,18 @@
       </c>
       <c r="Z51" s="14"/>
     </row>
-    <row r="61" spans="16:28" ht="18" x14ac:dyDescent="0.35">
-      <c r="T61" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="61" spans="16:28" x14ac:dyDescent="0.25">
+      <c r="T61" s="9"/>
     </row>
     <row r="62" spans="16:28" x14ac:dyDescent="0.25">
       <c r="S62" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T62" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="18:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="T65" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R66" s="9" t="s">
         <v>5</v>
       </c>

--- a/book/calculation_examples/concrete/Images/global dimensioning beam concrete.xlsx
+++ b/book/calculation_examples/concrete/Images/global dimensioning beam concrete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roel\SDE-local-clone-github\Structural_Design_Essentials\book\calculation_examples\concrete\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7E8916-6CA9-4E36-8CDC-8BC9CF2C230E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4D7922-D292-49C7-AB46-664B8C6230BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>b/3</t>
   </si>
@@ -162,12 +162,28 @@
   <si>
     <t>h</t>
   </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eff</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +234,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -331,8 +355,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10873440" y="11891398"/>
-          <a:ext cx="246041" cy="1009169"/>
+          <a:off x="10870537" y="12021060"/>
+          <a:ext cx="244588" cy="1022237"/>
           <a:chOff x="11792630" y="11872598"/>
           <a:chExt cx="246970" cy="1035975"/>
         </a:xfrm>
@@ -3031,8 +3055,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6048542" y="7739633"/>
-          <a:ext cx="124510" cy="90002"/>
+          <a:off x="6054350" y="7816588"/>
+          <a:ext cx="125962" cy="92616"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3186,8 +3210,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3900638" y="7734919"/>
-          <a:ext cx="117258" cy="90002"/>
+          <a:off x="3900638" y="7811874"/>
+          <a:ext cx="118710" cy="92616"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3341,8 +3365,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1775569" y="7735218"/>
-          <a:ext cx="111390" cy="90002"/>
+          <a:off x="1772666" y="7812173"/>
+          <a:ext cx="109937" cy="92616"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3496,8 +3520,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6052114" y="4559880"/>
-          <a:ext cx="124510" cy="90002"/>
+          <a:off x="6057922" y="4605472"/>
+          <a:ext cx="125962" cy="92616"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3651,8 +3675,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3904210" y="4555166"/>
-          <a:ext cx="117258" cy="90002"/>
+          <a:off x="3904210" y="4600758"/>
+          <a:ext cx="118710" cy="92616"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3806,8 +3830,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1779141" y="4555465"/>
-          <a:ext cx="111390" cy="90002"/>
+          <a:off x="1776238" y="4601057"/>
+          <a:ext cx="109937" cy="92616"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3961,8 +3985,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6055686" y="1386080"/>
-          <a:ext cx="124510" cy="90002"/>
+          <a:off x="6061494" y="1400309"/>
+          <a:ext cx="125962" cy="92616"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -4116,8 +4140,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3907782" y="1381366"/>
-          <a:ext cx="117258" cy="90002"/>
+          <a:off x="3907782" y="1395595"/>
+          <a:ext cx="118710" cy="92616"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -4271,8 +4295,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1782713" y="1381665"/>
-          <a:ext cx="111390" cy="90002"/>
+          <a:off x="1779810" y="1395894"/>
+          <a:ext cx="109937" cy="92616"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -4426,8 +4450,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5025197" y="1417634"/>
-          <a:ext cx="1070384" cy="1619823"/>
+          <a:off x="5028101" y="1431863"/>
+          <a:ext cx="1073288" cy="1638118"/>
           <a:chOff x="9737481" y="2006111"/>
           <a:chExt cx="1071457" cy="1554774"/>
         </a:xfrm>
@@ -5014,8 +5038,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1849458" y="7862449"/>
-          <a:ext cx="1008381" cy="116999"/>
+          <a:off x="1845102" y="7942018"/>
+          <a:ext cx="1009834" cy="119612"/>
           <a:chOff x="1845102" y="7537205"/>
           <a:chExt cx="1009834" cy="107706"/>
         </a:xfrm>
@@ -5131,8 +5155,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="967892" y="6894737"/>
-          <a:ext cx="1510931" cy="166685"/>
+          <a:off x="958455" y="6965158"/>
+          <a:ext cx="1523999" cy="166685"/>
           <a:chOff x="1845102" y="7537205"/>
           <a:chExt cx="1009834" cy="107706"/>
         </a:xfrm>
@@ -5248,8 +5272,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="2856870" y="7741406"/>
-          <a:ext cx="83854" cy="67951"/>
+          <a:off x="2853967" y="7818361"/>
+          <a:ext cx="85305" cy="70565"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -5454,8 +5478,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="4991181" y="1384283"/>
-          <a:ext cx="83852" cy="67951"/>
+          <a:off x="4994085" y="1398512"/>
+          <a:ext cx="85304" cy="70565"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -7056,8 +7080,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="1816572" y="6156684"/>
-          <a:ext cx="75369" cy="67952"/>
+          <a:off x="1813669" y="6217958"/>
+          <a:ext cx="73916" cy="70565"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -7262,7 +7286,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9898523" y="7140594"/>
+          <a:off x="9897071" y="7214935"/>
           <a:ext cx="415095" cy="384817"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
@@ -7539,8 +7563,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9411646" y="7139294"/>
-          <a:ext cx="429057" cy="340811"/>
+          <a:off x="9411646" y="7213635"/>
+          <a:ext cx="427605" cy="340811"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -7776,8 +7800,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11411171" y="4627540"/>
-          <a:ext cx="412728" cy="381630"/>
+          <a:off x="11406815" y="4675746"/>
+          <a:ext cx="411276" cy="386857"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -8053,8 +8077,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13388817" y="4627540"/>
-          <a:ext cx="415787" cy="381630"/>
+          <a:off x="13380106" y="4675746"/>
+          <a:ext cx="414334" cy="386857"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -8381,8 +8405,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11401443" y="5249616"/>
-          <a:ext cx="412728" cy="379258"/>
+          <a:off x="11397087" y="5305662"/>
+          <a:ext cx="411276" cy="379258"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -8658,8 +8682,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13379089" y="5187634"/>
-          <a:ext cx="415787" cy="380445"/>
+          <a:off x="13370378" y="5241067"/>
+          <a:ext cx="414334" cy="383058"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -9316,8 +9340,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9411646" y="4624295"/>
-          <a:ext cx="429057" cy="339218"/>
+          <a:off x="9411646" y="4672501"/>
+          <a:ext cx="427605" cy="341832"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -9553,8 +9577,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9417089" y="5192609"/>
-          <a:ext cx="429057" cy="339218"/>
+          <a:off x="9417089" y="5246042"/>
+          <a:ext cx="427605" cy="341831"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -10127,8 +10151,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="9997857" y="1609798"/>
-          <a:ext cx="1067838" cy="325887"/>
+          <a:off x="9989727" y="1629254"/>
+          <a:ext cx="1078292" cy="325887"/>
           <a:chOff x="9413447" y="2690132"/>
           <a:chExt cx="1064052" cy="325887"/>
         </a:xfrm>
@@ -11572,8 +11596,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="13526784" y="1731524"/>
-          <a:ext cx="1167766" cy="179621"/>
+          <a:off x="13509941" y="1750980"/>
+          <a:ext cx="1178220" cy="179621"/>
           <a:chOff x="9299804" y="2690133"/>
           <a:chExt cx="1177696" cy="179621"/>
         </a:xfrm>
@@ -12612,8 +12636,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="10049143" y="1737387"/>
-          <a:ext cx="1167766" cy="179615"/>
+          <a:off x="10041013" y="1756843"/>
+          <a:ext cx="1178220" cy="179615"/>
           <a:chOff x="9299804" y="2690139"/>
           <a:chExt cx="1177696" cy="179615"/>
         </a:xfrm>
@@ -12966,8 +12990,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11411171" y="8386430"/>
-          <a:ext cx="412728" cy="400216"/>
+          <a:off x="11406815" y="8473839"/>
+          <a:ext cx="411276" cy="404717"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -13294,8 +13318,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11401443" y="9027091"/>
-          <a:ext cx="412728" cy="416429"/>
+          <a:off x="11397087" y="9121615"/>
+          <a:ext cx="411276" cy="420930"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -13571,8 +13595,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13379089" y="8982685"/>
-          <a:ext cx="415787" cy="408323"/>
+          <a:off x="13370378" y="9077209"/>
+          <a:ext cx="414334" cy="412824"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -13848,8 +13872,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9411646" y="8383185"/>
-          <a:ext cx="429057" cy="357804"/>
+          <a:off x="9411646" y="8470594"/>
+          <a:ext cx="427605" cy="359692"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -14085,8 +14109,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9417089" y="8970085"/>
-          <a:ext cx="429057" cy="367095"/>
+          <a:off x="9417089" y="9061995"/>
+          <a:ext cx="427605" cy="371597"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -14375,8 +14399,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11404755" y="9708329"/>
-          <a:ext cx="412728" cy="416428"/>
+          <a:off x="11400399" y="9809968"/>
+          <a:ext cx="411276" cy="420928"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -14652,8 +14676,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13382401" y="9708329"/>
-          <a:ext cx="415787" cy="408322"/>
+          <a:off x="13373690" y="9809968"/>
+          <a:ext cx="414334" cy="412822"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -15310,8 +15334,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9420401" y="9683480"/>
-          <a:ext cx="429057" cy="367095"/>
+          <a:off x="9420401" y="9785119"/>
+          <a:ext cx="427605" cy="371595"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -15547,8 +15571,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15290303" y="9683480"/>
-          <a:ext cx="420029" cy="408322"/>
+          <a:off x="15275784" y="9785119"/>
+          <a:ext cx="420029" cy="412822"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -16271,8 +16295,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="9993211" y="12184871"/>
-          <a:ext cx="1077130" cy="325887"/>
+          <a:off x="9983774" y="12321067"/>
+          <a:ext cx="1090198" cy="325887"/>
           <a:chOff x="9413447" y="2690132"/>
           <a:chExt cx="1064052" cy="325887"/>
         </a:xfrm>
@@ -17379,8 +17403,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="10044497" y="12312460"/>
-          <a:ext cx="1177058" cy="179615"/>
+          <a:off x="10035060" y="12448656"/>
+          <a:ext cx="1190126" cy="179615"/>
           <a:chOff x="9299804" y="2690139"/>
           <a:chExt cx="1177696" cy="179615"/>
         </a:xfrm>
@@ -17738,8 +17762,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="10762101" y="12309831"/>
-          <a:ext cx="980310" cy="178510"/>
+          <a:off x="10751211" y="12446027"/>
+          <a:ext cx="993378" cy="178510"/>
           <a:chOff x="9413446" y="2690140"/>
           <a:chExt cx="913694" cy="179615"/>
         </a:xfrm>
@@ -19688,6 +19712,1745 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>467674</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>50837</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>41413</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>50837</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="434" name="Straight Connector 433">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCAF82CD-3188-4286-90D3-C8D021B61FFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9611674" y="8413787"/>
+          <a:ext cx="2012139" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>49715</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>130437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>112211</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>84888</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="482" name="Group 481">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AF9CA11-2FC8-8261-2AD6-EFA69B5F65FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2806456" y="14596087"/>
+          <a:ext cx="335451" cy="62496"/>
+          <a:chOff x="4100765" y="14179199"/>
+          <a:chExt cx="335451" cy="62496"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="439" name="Rectangle 438">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEE20F11-38A2-BB78-C8A5-E55C1BC7EF6B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4103193" y="14189539"/>
+            <a:ext cx="330596" cy="52156"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:pattFill prst="wdUpDiag">
+            <a:fgClr>
+              <a:schemeClr val="tx1"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="bg1"/>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="nl-NL" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="440" name="Straight Connector 439">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4C99277-EB10-A547-9380-E00D1CFC2891}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4100765" y="14179199"/>
+            <a:ext cx="335451" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>267646</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>29063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>88032</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>168489</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="441" name="Group 440">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{866699D0-C857-495D-A260-96F42279EDC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="874865" y="13977235"/>
+          <a:ext cx="427605" cy="329926"/>
+          <a:chOff x="9410700" y="4685550"/>
+          <a:chExt cx="429986" cy="338207"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="442" name="Isosceles Triangle 441">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D8512CF-4214-1D8C-55BB-651B6B4D0263}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9513794" y="4745830"/>
+            <a:ext cx="212912" cy="201385"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="nl-NL" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="443" name="Oval 442">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D109F2-B81D-D7C8-6C2E-C72C15C713D6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9584120" y="4685550"/>
+            <a:ext cx="65690" cy="65690"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="nl-NL" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="444" name="Straight Connector 443">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66CCDD2D-0EEA-81E2-5399-9746C7AAA5CB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9416143" y="4953000"/>
+            <a:ext cx="413657" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="445" name="Rectangle 444">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE74112-60E3-9BB4-7312-FA6BCEAB8355}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9410700" y="4963886"/>
+            <a:ext cx="429986" cy="59871"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:pattFill prst="wdUpDiag">
+            <a:fgClr>
+              <a:schemeClr val="tx1"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="bg1"/>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="nl-NL" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>467674</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>102126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>41413</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>102126</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="446" name="Straight Connector 445">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B07E8C7-2E2C-4E1E-B6D5-25C04F091294}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1075809" y="14367645"/>
+          <a:ext cx="1859739" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>467674</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>168069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>41413</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>168069</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="470" name="Straight Connector 469">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E134CE4-BCFB-40A4-AB67-81CFEAC82977}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1075809" y="15005088"/>
+          <a:ext cx="1859739" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>164744</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>62222</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>500195</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>122019</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="483" name="Group 482">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD1EEA2-04AF-C916-8E0D-7E7C62C3F90A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10523182" y="7491722"/>
+          <a:ext cx="335451" cy="59797"/>
+          <a:chOff x="4100765" y="14179199"/>
+          <a:chExt cx="335451" cy="62496"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="484" name="Rectangle 483">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{271410B4-3A59-CAC9-C3F5-690C6B94E899}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4103193" y="14189539"/>
+            <a:ext cx="330596" cy="52156"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:pattFill prst="wdUpDiag">
+            <a:fgClr>
+              <a:schemeClr val="tx1"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="bg1"/>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="nl-NL" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="485" name="Straight Connector 484">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62CE279F-A2CA-0179-258A-318C52A8A442}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4100765" y="14179199"/>
+            <a:ext cx="335451" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>439694</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>30842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>243751</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>12887</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="486" name="Group 485">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B482A13-3FF1-5E69-6C84-C59ED88D815A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2797132" y="13979014"/>
+          <a:ext cx="339838" cy="363045"/>
+          <a:chOff x="9439275" y="5432246"/>
+          <a:chExt cx="415095" cy="384611"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="487" name="Isosceles Triangle 486">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4150E43-1456-F3C6-EAC6-1FE3456C11D3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9540285" y="5492901"/>
+            <a:ext cx="213075" cy="202638"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="nl-NL" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="488" name="Oval 487">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46A9C1AB-73F4-C2FC-BBA8-CFDF155B9F17}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9613952" y="5432246"/>
+            <a:ext cx="65740" cy="66099"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="nl-NL" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="489" name="Straight Connector 488">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F7931EC-3AF6-FA65-EF03-E2B3D8C4F6AC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9439275" y="5701361"/>
+            <a:ext cx="415095" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="490" name="Rectangle 489">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7269FD1-73F6-F0A5-0948-944509C339BC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9442279" y="5761603"/>
+            <a:ext cx="409087" cy="55254"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:pattFill prst="wdUpDiag">
+            <a:fgClr>
+              <a:schemeClr val="tx1"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="bg1"/>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="nl-NL" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="491" name="Straight Connector 490">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A33E09F9-6F95-64A1-A45C-1DEF55D7F32A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9439275" y="5750649"/>
+            <a:ext cx="415095" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>320997</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>73338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>51786</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>55383</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="492" name="Group 491">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05DAC98-F6DA-156B-2DCA-7652BF7E8DC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="928216" y="14593010"/>
+          <a:ext cx="338008" cy="363045"/>
+          <a:chOff x="9439275" y="5432246"/>
+          <a:chExt cx="415095" cy="384611"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="493" name="Isosceles Triangle 492">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{518744FD-7B20-1B5A-AA8D-AE4475F11763}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9540285" y="5492901"/>
+            <a:ext cx="213075" cy="202638"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="nl-NL" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="494" name="Oval 493">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C1B36C4-3271-A687-45D1-CA1E8D9EA102}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9613952" y="5432246"/>
+            <a:ext cx="65740" cy="66099"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="nl-NL" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="495" name="Straight Connector 494">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DCDF924-9F0F-192B-3B77-B5ACD863A321}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9439275" y="5701361"/>
+            <a:ext cx="415095" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="496" name="Rectangle 495">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{281D9544-EF50-DA21-E69D-31FBB0FB45A3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9442279" y="5761603"/>
+            <a:ext cx="409087" cy="55254"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:pattFill prst="wdUpDiag">
+            <a:fgClr>
+              <a:schemeClr val="tx1"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="bg1"/>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="nl-NL" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="497" name="Straight Connector 496">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F62925F-DD50-C25D-22F9-50FD202923BD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9439275" y="5750649"/>
+            <a:ext cx="415095" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>55577</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>2950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>118073</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>147901</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="498" name="Group 497">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ADFBD03-8EBC-309C-A42C-19A0DD660A3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2812318" y="15230600"/>
+          <a:ext cx="335451" cy="62496"/>
+          <a:chOff x="4100765" y="14179199"/>
+          <a:chExt cx="335451" cy="62496"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="499" name="Rectangle 498">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4E4CC3-4197-F809-D943-4A91FE592C94}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4103193" y="14189539"/>
+            <a:ext cx="330596" cy="52156"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:pattFill prst="wdUpDiag">
+            <a:fgClr>
+              <a:schemeClr val="tx1"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="bg1"/>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="nl-NL" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="500" name="Straight Connector 499">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80ADACC3-C471-2EAF-EB03-204C3B0FFC89}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4100765" y="14179199"/>
+            <a:ext cx="335451" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>398478</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>2950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>460974</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>147901</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="501" name="Group 500">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9890AC96-4260-6C18-0330-3E1294470961}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="16200000" flipH="1" flipV="1">
+          <a:off x="869219" y="15230600"/>
+          <a:ext cx="335451" cy="62496"/>
+          <a:chOff x="4100765" y="14179199"/>
+          <a:chExt cx="335451" cy="62496"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="502" name="Rectangle 501">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9054C68-9510-5313-4990-8782B018B7EC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4103193" y="14189539"/>
+            <a:ext cx="330596" cy="52156"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:pattFill prst="wdUpDiag">
+            <a:fgClr>
+              <a:schemeClr val="tx1"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="bg1"/>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="nl-NL" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="503" name="Straight Connector 502">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60B5B0D-8577-DEA8-B44E-E094AE5BB309}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4100765" y="14179199"/>
+            <a:ext cx="335451" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>373425</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>206227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>160734</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>206227</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="504" name="Straight Connector 503">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC90449C-A3C1-A30C-D4AD-D7C30BADFFD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="980644" y="15678399"/>
+          <a:ext cx="2073309" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>449625</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>76957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>449625</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>67093</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="505" name="Straight Connector 504">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7030903-F53E-797E-CCEE-725E0459423B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1056844" y="15549129"/>
+          <a:ext cx="0" cy="216355"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400639</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>170730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>487476</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>12664</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="506" name="Straight Connector 505">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACB47A47-1B34-595B-4889-B91CBFDD10F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1007858" y="15642902"/>
+          <a:ext cx="86837" cy="68153"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>72189</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>80532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>72189</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>70668</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="508" name="Straight Connector 507">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB1268BE-1B8F-2866-A8DA-DD375DE66820}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2965408" y="15552704"/>
+          <a:ext cx="0" cy="216355"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23203</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>174305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>110040</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>16239</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="509" name="Straight Connector 508">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8972CB2D-4958-41EF-62F3-9A1611B24C9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2916422" y="15646477"/>
+          <a:ext cx="86837" cy="68153"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -19959,10 +21722,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A5:AB66"/>
+  <dimension ref="A5:AB78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M54" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="W62" sqref="W62"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20138,9 +21901,49 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R66" s="9" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="13"/>
+    </row>
+    <row r="72" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="11"/>
+    </row>
+    <row r="73" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="13"/>
+    </row>
+    <row r="75" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="11"/>
+    </row>
+    <row r="76" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="13"/>
+    </row>
+    <row r="78" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A78" s="11"/>
+      <c r="D78" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/book/calculation_examples/concrete/Images/global dimensioning beam concrete.xlsx
+++ b/book/calculation_examples/concrete/Images/global dimensioning beam concrete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roel\SDE-local-clone-github\Structural_Design_Essentials\book\calculation_examples\concrete\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4D7922-D292-49C7-AB46-664B8C6230BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF46100-4304-4C7A-895E-8086E6DFD893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>b/3</t>
   </si>
@@ -178,6 +178,12 @@
       <t>eff</t>
     </r>
   </si>
+  <si>
+    <t>L = 6 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       (center-to-center distance: 8 m)</t>
+  </si>
 </sst>
 </file>
 
@@ -355,8 +361,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10870537" y="12021060"/>
-          <a:ext cx="244588" cy="1022237"/>
+          <a:off x="10872368" y="11808121"/>
+          <a:ext cx="245505" cy="999341"/>
           <a:chOff x="11792630" y="11872598"/>
           <a:chExt cx="246970" cy="1035975"/>
         </a:xfrm>
@@ -3055,8 +3061,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6054350" y="7816588"/>
-          <a:ext cx="125962" cy="92616"/>
+          <a:off x="6050687" y="7687451"/>
+          <a:ext cx="125046" cy="88036"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3210,8 +3216,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3900638" y="7811874"/>
-          <a:ext cx="118710" cy="92616"/>
+          <a:off x="3900638" y="7682737"/>
+          <a:ext cx="117794" cy="88036"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3365,8 +3371,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1772666" y="7812173"/>
-          <a:ext cx="109937" cy="92616"/>
+          <a:off x="1774497" y="7683036"/>
+          <a:ext cx="110854" cy="88036"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3520,8 +3526,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6057922" y="4605472"/>
-          <a:ext cx="125962" cy="92616"/>
+          <a:off x="6054259" y="4531287"/>
+          <a:ext cx="125046" cy="88036"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3675,8 +3681,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3904210" y="4600758"/>
-          <a:ext cx="118710" cy="92616"/>
+          <a:off x="3904210" y="4526573"/>
+          <a:ext cx="117794" cy="88036"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3830,8 +3836,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1776238" y="4601057"/>
-          <a:ext cx="109937" cy="92616"/>
+          <a:off x="1778069" y="4526872"/>
+          <a:ext cx="110854" cy="88036"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3985,8 +3991,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6061494" y="1400309"/>
-          <a:ext cx="125962" cy="92616"/>
+          <a:off x="6057831" y="1381076"/>
+          <a:ext cx="125046" cy="88036"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -4140,8 +4146,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3907782" y="1395595"/>
-          <a:ext cx="118710" cy="92616"/>
+          <a:off x="3907782" y="1376362"/>
+          <a:ext cx="117794" cy="88036"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -4295,8 +4301,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1779810" y="1395894"/>
-          <a:ext cx="109937" cy="92616"/>
+          <a:off x="1781641" y="1376661"/>
+          <a:ext cx="110854" cy="88036"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -4450,8 +4456,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5028101" y="1431863"/>
-          <a:ext cx="1073288" cy="1638118"/>
+          <a:off x="5026269" y="1412630"/>
+          <a:ext cx="1071457" cy="1606063"/>
           <a:chOff x="9737481" y="2006111"/>
           <a:chExt cx="1071457" cy="1554774"/>
         </a:xfrm>
@@ -5038,8 +5044,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1845102" y="7942018"/>
-          <a:ext cx="1009834" cy="119612"/>
+          <a:off x="1847850" y="7808301"/>
+          <a:ext cx="1008917" cy="115033"/>
           <a:chOff x="1845102" y="7537205"/>
           <a:chExt cx="1009834" cy="107706"/>
         </a:xfrm>
@@ -5155,8 +5161,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="958455" y="6965158"/>
-          <a:ext cx="1523999" cy="166685"/>
+          <a:off x="971735" y="6847469"/>
+          <a:ext cx="1501102" cy="166685"/>
           <a:chOff x="1845102" y="7537205"/>
           <a:chExt cx="1009834" cy="107706"/>
         </a:xfrm>
@@ -5272,8 +5278,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="2853967" y="7818361"/>
-          <a:ext cx="85305" cy="70565"/>
+          <a:off x="2855798" y="7689224"/>
+          <a:ext cx="84390" cy="65985"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -5478,8 +5484,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="4994085" y="1398512"/>
-          <a:ext cx="85304" cy="70565"/>
+          <a:off x="4992253" y="1379279"/>
+          <a:ext cx="84388" cy="65985"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -7080,8 +7086,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="1813669" y="6217958"/>
-          <a:ext cx="73916" cy="70565"/>
+          <a:off x="1815500" y="6116297"/>
+          <a:ext cx="74833" cy="65986"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -7286,7 +7292,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9897071" y="7214935"/>
+          <a:off x="9897987" y="7090377"/>
           <a:ext cx="415095" cy="384817"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
@@ -7563,8 +7569,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9411646" y="7213635"/>
-          <a:ext cx="427605" cy="340811"/>
+          <a:off x="9411646" y="7089077"/>
+          <a:ext cx="428521" cy="340811"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -7800,8 +7806,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11406815" y="4675746"/>
-          <a:ext cx="411276" cy="386857"/>
+          <a:off x="11409563" y="4596981"/>
+          <a:ext cx="412191" cy="377699"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -8077,8 +8083,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13380106" y="4675746"/>
-          <a:ext cx="414334" cy="386857"/>
+          <a:off x="13385601" y="4596981"/>
+          <a:ext cx="415250" cy="377699"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -8405,8 +8411,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11397087" y="5305662"/>
-          <a:ext cx="411276" cy="379258"/>
+          <a:off x="11399835" y="5213160"/>
+          <a:ext cx="412191" cy="379258"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -8682,8 +8688,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13370378" y="5241067"/>
-          <a:ext cx="414334" cy="383058"/>
+          <a:off x="13375873" y="5153144"/>
+          <a:ext cx="415250" cy="378479"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -9340,8 +9346,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9411646" y="4672501"/>
-          <a:ext cx="427605" cy="341832"/>
+          <a:off x="9411646" y="4593736"/>
+          <a:ext cx="428521" cy="337253"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -9577,8 +9583,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9417089" y="5246042"/>
-          <a:ext cx="427605" cy="341831"/>
+          <a:off x="9417089" y="5158119"/>
+          <a:ext cx="428521" cy="337252"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -10151,8 +10157,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="9989727" y="1629254"/>
-          <a:ext cx="1078292" cy="325887"/>
+          <a:off x="10000716" y="1600863"/>
+          <a:ext cx="1059975" cy="325887"/>
           <a:chOff x="9413447" y="2690132"/>
           <a:chExt cx="1064052" cy="325887"/>
         </a:xfrm>
@@ -11596,8 +11602,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="13509941" y="1750980"/>
-          <a:ext cx="1178220" cy="179621"/>
+          <a:off x="13526426" y="1722589"/>
+          <a:ext cx="1159903" cy="179621"/>
           <a:chOff x="9299804" y="2690133"/>
           <a:chExt cx="1177696" cy="179621"/>
         </a:xfrm>
@@ -12636,8 +12642,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="10041013" y="1756843"/>
-          <a:ext cx="1178220" cy="179615"/>
+          <a:off x="10052002" y="1728452"/>
+          <a:ext cx="1159903" cy="179615"/>
           <a:chOff x="9299804" y="2690139"/>
           <a:chExt cx="1177696" cy="179615"/>
         </a:xfrm>
@@ -12990,8 +12996,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11406815" y="8473839"/>
-          <a:ext cx="411276" cy="404717"/>
+          <a:off x="11409563" y="8326385"/>
+          <a:ext cx="412191" cy="399680"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -13318,8 +13324,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11397087" y="9121615"/>
-          <a:ext cx="411276" cy="420930"/>
+          <a:off x="11399835" y="8964544"/>
+          <a:ext cx="412191" cy="415893"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -13595,8 +13601,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13370378" y="9077209"/>
-          <a:ext cx="414334" cy="412824"/>
+          <a:off x="13375873" y="8920138"/>
+          <a:ext cx="415250" cy="407787"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -13872,8 +13878,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9411646" y="8470594"/>
-          <a:ext cx="427605" cy="359692"/>
+          <a:off x="9411646" y="8323140"/>
+          <a:ext cx="428521" cy="359234"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -14109,8 +14115,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9417089" y="9061995"/>
-          <a:ext cx="427605" cy="371597"/>
+          <a:off x="9417089" y="8909504"/>
+          <a:ext cx="428521" cy="366559"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -14399,8 +14405,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11400399" y="9809968"/>
-          <a:ext cx="411276" cy="420928"/>
+          <a:off x="11403147" y="9643280"/>
+          <a:ext cx="412191" cy="415892"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -14676,8 +14682,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13373690" y="9809968"/>
-          <a:ext cx="414334" cy="412822"/>
+          <a:off x="13379185" y="9643280"/>
+          <a:ext cx="415250" cy="407786"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -15334,8 +15340,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9420401" y="9785119"/>
-          <a:ext cx="427605" cy="371595"/>
+          <a:off x="9420401" y="9618431"/>
+          <a:ext cx="428521" cy="366559"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -15571,8 +15577,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15275784" y="9785119"/>
-          <a:ext cx="420029" cy="412822"/>
+          <a:off x="15284942" y="9618431"/>
+          <a:ext cx="420029" cy="407786"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -16295,8 +16301,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="9983774" y="12321067"/>
-          <a:ext cx="1090198" cy="325887"/>
+          <a:off x="9997053" y="12096680"/>
+          <a:ext cx="1067302" cy="325887"/>
           <a:chOff x="9413447" y="2690132"/>
           <a:chExt cx="1064052" cy="325887"/>
         </a:xfrm>
@@ -17403,8 +17409,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="10035060" y="12448656"/>
-          <a:ext cx="1190126" cy="179615"/>
+          <a:off x="10048339" y="12224269"/>
+          <a:ext cx="1167230" cy="179615"/>
           <a:chOff x="9299804" y="2690139"/>
           <a:chExt cx="1177696" cy="179615"/>
         </a:xfrm>
@@ -17762,8 +17768,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="10751211" y="12446027"/>
-          <a:ext cx="993378" cy="178510"/>
+          <a:off x="10765407" y="12221640"/>
+          <a:ext cx="970482" cy="178510"/>
           <a:chOff x="9413446" y="2690140"/>
           <a:chExt cx="913694" cy="179615"/>
         </a:xfrm>
@@ -19791,7 +19797,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="2806456" y="14596087"/>
+          <a:off x="2807372" y="14341934"/>
           <a:ext cx="335451" cy="62496"/>
           <a:chOff x="4100765" y="14179199"/>
           <a:chExt cx="335451" cy="62496"/>
@@ -19922,8 +19928,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="874865" y="13977235"/>
-          <a:ext cx="427605" cy="329926"/>
+          <a:off x="875781" y="13723082"/>
+          <a:ext cx="428520" cy="329926"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -20261,7 +20267,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10523182" y="7491722"/>
+          <a:off x="10525013" y="7367164"/>
           <a:ext cx="335451" cy="59797"/>
           <a:chOff x="4100765" y="14179199"/>
           <a:chExt cx="335451" cy="62496"/>
@@ -20392,8 +20398,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2797132" y="13979014"/>
-          <a:ext cx="339838" cy="363045"/>
+          <a:off x="2798963" y="13724861"/>
+          <a:ext cx="338923" cy="363045"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -20669,8 +20675,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="928216" y="14593010"/>
-          <a:ext cx="338008" cy="363045"/>
+          <a:off x="929132" y="14338857"/>
+          <a:ext cx="338923" cy="363045"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -20946,7 +20952,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="2812318" y="15230600"/>
+          <a:off x="2813234" y="14976447"/>
           <a:ext cx="335451" cy="62496"/>
           <a:chOff x="4100765" y="14179199"/>
           <a:chExt cx="335451" cy="62496"/>
@@ -21077,7 +21083,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000" flipH="1" flipV="1">
-          <a:off x="869219" y="15230600"/>
+          <a:off x="870135" y="14976447"/>
           <a:ext cx="335451" cy="62496"/>
           <a:chOff x="4100765" y="14179199"/>
           <a:chExt cx="335451" cy="62496"/>
@@ -21451,6 +21457,1657 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>484238</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>59119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>211542</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>64749</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="448" name="Straight Connector 447">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B825959-FF04-4E70-A4CF-0FBE301ED408}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9628238" y="4623792"/>
+          <a:ext cx="3984246" cy="5630"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>441159</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>32308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>245216</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="449" name="Group 448">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17C1CC8B-26B3-4BAE-89A1-72EA47565FC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2800428" y="16664423"/>
+          <a:ext cx="338923" cy="363346"/>
+          <a:chOff x="9439275" y="5432246"/>
+          <a:chExt cx="415095" cy="384611"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="450" name="Isosceles Triangle 449">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0429AE64-A92B-7A94-D855-C7BE291A5BAD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9540285" y="5492901"/>
+            <a:ext cx="213075" cy="202638"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="nl-NL" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="451" name="Oval 450">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E22739CB-C9DB-C7D3-A61C-2F55477C41CB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9613952" y="5432246"/>
+            <a:ext cx="65740" cy="66099"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="nl-NL" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="452" name="Straight Connector 451">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC65DD53-D044-719C-9B49-157D3974C8A5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9439275" y="5701361"/>
+            <a:ext cx="415095" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="453" name="Rectangle 452">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2899DCE0-B4D4-E91D-5BD9-4226F6A13882}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9442279" y="5761603"/>
+            <a:ext cx="409087" cy="55254"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:pattFill prst="wdUpDiag">
+            <a:fgClr>
+              <a:schemeClr val="tx1"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="bg1"/>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="nl-NL" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="454" name="Straight Connector 453">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0F5FB1A-162B-DCBB-FEB6-B8BBED1FE492}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9439275" y="5750649"/>
+            <a:ext cx="415095" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>777</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>32308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>399909</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="455" name="Group 454">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8E53592-B83A-41F4-8F7A-C8972ACD0FC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4499508" y="16664423"/>
+          <a:ext cx="399132" cy="363346"/>
+          <a:chOff x="9439275" y="5432246"/>
+          <a:chExt cx="415095" cy="384611"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="456" name="Isosceles Triangle 455">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73E77F35-DB94-904B-7F15-50F25116298A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9540285" y="5492901"/>
+            <a:ext cx="213075" cy="202638"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="nl-NL" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="457" name="Oval 456">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2259863-4151-8BAB-9FAB-28BBB4456681}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9613952" y="5432246"/>
+            <a:ext cx="65740" cy="66099"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="nl-NL" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="458" name="Straight Connector 457">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1EBB5C9-9207-294D-9CCC-9AB34E155B3D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9439275" y="5701361"/>
+            <a:ext cx="415095" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="459" name="Rectangle 458">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DDD904-E88E-52B3-523F-8E8306DE2354}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9442279" y="5761603"/>
+            <a:ext cx="409087" cy="55254"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:pattFill prst="wdUpDiag">
+            <a:fgClr>
+              <a:schemeClr val="tx1"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="bg1"/>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="nl-NL" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="460" name="Straight Connector 459">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E7C112-46BB-AEB8-D515-992BF1A1A3D2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9439275" y="5750649"/>
+            <a:ext cx="415095" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>408214</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>288471</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="475" name="Straight Connector 474">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B184323A-3E41-440D-B086-D8608113113F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9552214" y="5769639"/>
+          <a:ext cx="4137199" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>484414</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>484414</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="476" name="Straight Connector 475">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12E82B8-44CB-477A-8193-EDD59A2E3629}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9628414" y="5680668"/>
+          <a:ext cx="0" cy="176056"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="477" name="Straight Connector 476">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11A45221-DD54-4B32-9C44-3C700EF0B403}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11609195" y="5680668"/>
+          <a:ext cx="0" cy="176056"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="478" name="Straight Connector 477">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D4E0F9-FBBF-4230-AD8A-BC94B94DF4FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13591442" y="5680668"/>
+          <a:ext cx="0" cy="176056"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>195943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>522265</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="479" name="Straight Connector 478">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BCCDF9B-5E83-4524-8959-D2EC8DE065F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9579428" y="5735097"/>
+          <a:ext cx="86837" cy="67198"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>195943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>75951</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="480" name="Straight Connector 479">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8649D2A0-8D5E-4E8D-B323-62983C19AB67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11567118" y="5735097"/>
+          <a:ext cx="85371" cy="67198"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>146957</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>195943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>233794</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="481" name="Straight Connector 480">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED1CC002-1452-49BC-884B-615D3384E88E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13547899" y="5735097"/>
+          <a:ext cx="86837" cy="67198"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>267646</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>29063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>88032</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>168489</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="507" name="Group 506">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D1ACB0F-C7CA-46CA-AF4F-6DC62026E2DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="875781" y="16661178"/>
+          <a:ext cx="428520" cy="337253"/>
+          <a:chOff x="9410700" y="4685550"/>
+          <a:chExt cx="429986" cy="338207"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="510" name="Isosceles Triangle 509">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC62E42-ACB4-2A7A-57FA-5A38442DFA1A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9513794" y="4745830"/>
+            <a:ext cx="212912" cy="201385"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="nl-NL" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="511" name="Oval 510">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF1F5685-A140-180E-C74E-793B8E888229}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9584120" y="4685550"/>
+            <a:ext cx="65690" cy="65690"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="nl-NL" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="347" name="Straight Connector 346">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E881C2C3-AD2A-CCBA-6F0E-062F5912F1ED}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9416143" y="4953000"/>
+            <a:ext cx="413657" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="352" name="Rectangle 351">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE5909A-CC23-DE79-6D90-71EB2492A799}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9410700" y="4963886"/>
+            <a:ext cx="429986" cy="59871"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:pattFill prst="wdUpDiag">
+            <a:fgClr>
+              <a:schemeClr val="tx1"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="bg1"/>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="nl-NL" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>461596</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219807</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="378" name="Rectangle 377">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DDFB9E1-B739-05ED-7F9F-EB25000DB6FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1069731" y="16529538"/>
+          <a:ext cx="3648807" cy="109904"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="dkVert">
+          <a:fgClr>
+            <a:schemeClr val="tx1"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>461596</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>102576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219807</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>64477</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="379" name="Rectangle 378">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D63FC34-EF01-B0C6-1D01-4EA36443E0EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1069731" y="16339038"/>
+          <a:ext cx="3648807" cy="159727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="dkVert">
+          <a:fgClr>
+            <a:srgbClr val="0070C0"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>461596</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>115764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219807</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>77664</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="380" name="Rectangle 379">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE86091-D7FB-D7F3-FC9D-4DF8933CDE33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1069731" y="16154399"/>
+          <a:ext cx="3648807" cy="159727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="dkVert">
+          <a:fgClr>
+            <a:srgbClr val="FF0000"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>363415</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>326780</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>175847</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="381" name="TextBox 380">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6157F60B-03B7-3AF9-A41A-1B690FE1BDA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4862146" y="16426962"/>
+          <a:ext cx="1033096" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1400"/>
+            <a:t>q</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1400" baseline="-25000"/>
+            <a:t>self</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>363415</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>189035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>326780</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>174382</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="382" name="TextBox 381">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19D43206-B1DB-BF14-427E-5E84DE5BAFEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4862146" y="16227670"/>
+          <a:ext cx="1033096" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>q</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1400" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>perm</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>363415</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>11724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>326780</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>194897</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="383" name="TextBox 382">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3F5A111-0795-7DA2-748C-2378F636402B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4862146" y="16050359"/>
+          <a:ext cx="1033096" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>q</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1400" baseline="-25000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>imposed</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -21722,10 +23379,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A5:AB78"/>
+  <dimension ref="A5:AB90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView tabSelected="1" topLeftCell="B72" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L90" sqref="L90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21946,6 +23603,24 @@
         <v>19</v>
       </c>
     </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D87" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="Y51:Z51"/>

--- a/book/calculation_examples/concrete/Images/global dimensioning beam concrete.xlsx
+++ b/book/calculation_examples/concrete/Images/global dimensioning beam concrete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roel\SDE-local-clone-github\Structural_Design_Essentials\book\calculation_examples\concrete\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF46100-4304-4C7A-895E-8086E6DFD893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC64FD2E-A01B-412F-BFCC-423192E566B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>b/3</t>
   </si>
@@ -184,12 +184,38 @@
   <si>
     <t xml:space="preserve">       (center-to-center distance: 8 m)</t>
   </si>
+  <si>
+    <t>3m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 m </t>
+  </si>
+  <si>
+    <t>Area of floor carried by beam B3-D3</t>
+  </si>
+  <si>
+    <r>
+      <t>Area per m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +269,15 @@
     </font>
     <font>
       <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -361,8 +396,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10872368" y="11808121"/>
-          <a:ext cx="245505" cy="999341"/>
+          <a:off x="10866334" y="11996897"/>
+          <a:ext cx="242488" cy="1018735"/>
           <a:chOff x="11792630" y="11872598"/>
           <a:chExt cx="246970" cy="1035975"/>
         </a:xfrm>
@@ -3061,8 +3096,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6050687" y="7687451"/>
-          <a:ext cx="125046" cy="88036"/>
+          <a:off x="6062754" y="7793476"/>
+          <a:ext cx="128064" cy="91915"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3216,8 +3251,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3900638" y="7682737"/>
-          <a:ext cx="117794" cy="88036"/>
+          <a:off x="3900638" y="7788762"/>
+          <a:ext cx="120811" cy="91915"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3371,8 +3406,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1774497" y="7683036"/>
-          <a:ext cx="110854" cy="88036"/>
+          <a:off x="1768463" y="7789061"/>
+          <a:ext cx="107837" cy="91915"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3526,8 +3561,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6054259" y="4531287"/>
-          <a:ext cx="125046" cy="88036"/>
+          <a:off x="6066326" y="4590765"/>
+          <a:ext cx="128064" cy="91914"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3681,8 +3716,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3904210" y="4526573"/>
-          <a:ext cx="117794" cy="88036"/>
+          <a:off x="3904210" y="4586051"/>
+          <a:ext cx="120811" cy="91914"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3836,8 +3871,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1778069" y="4526872"/>
-          <a:ext cx="110854" cy="88036"/>
+          <a:off x="1772035" y="4586350"/>
+          <a:ext cx="107837" cy="91914"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -3991,8 +4026,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6057831" y="1381076"/>
-          <a:ext cx="125046" cy="88036"/>
+          <a:off x="6069898" y="1394006"/>
+          <a:ext cx="128064" cy="91915"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -4146,8 +4181,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3907782" y="1376362"/>
-          <a:ext cx="117794" cy="88036"/>
+          <a:off x="3907782" y="1389292"/>
+          <a:ext cx="120811" cy="91915"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -4301,8 +4336,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1781641" y="1376661"/>
-          <a:ext cx="110854" cy="88036"/>
+          <a:off x="1775607" y="1389591"/>
+          <a:ext cx="107837" cy="91915"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -4456,8 +4491,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5026269" y="1412630"/>
-          <a:ext cx="1071457" cy="1606063"/>
+          <a:off x="5032303" y="1425560"/>
+          <a:ext cx="1077490" cy="1633215"/>
           <a:chOff x="9737481" y="2006111"/>
           <a:chExt cx="1071457" cy="1554774"/>
         </a:xfrm>
@@ -5044,8 +5079,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1847850" y="7808301"/>
-          <a:ext cx="1008917" cy="115033"/>
+          <a:off x="1838799" y="7918205"/>
+          <a:ext cx="1011934" cy="118912"/>
           <a:chOff x="1845102" y="7537205"/>
           <a:chExt cx="1009834" cy="107706"/>
         </a:xfrm>
@@ -5161,8 +5196,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="971735" y="6847469"/>
-          <a:ext cx="1501102" cy="166685"/>
+          <a:off x="956003" y="6943797"/>
+          <a:ext cx="1520497" cy="166685"/>
           <a:chOff x="1845102" y="7537205"/>
           <a:chExt cx="1009834" cy="107706"/>
         </a:xfrm>
@@ -5278,8 +5313,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="2855798" y="7689224"/>
-          <a:ext cx="84390" cy="65985"/>
+          <a:off x="2849764" y="7795249"/>
+          <a:ext cx="87407" cy="69864"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -5484,8 +5519,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="4992253" y="1379279"/>
-          <a:ext cx="84388" cy="65985"/>
+          <a:off x="4998287" y="1392209"/>
+          <a:ext cx="87405" cy="69864"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -7086,8 +7121,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="1815500" y="6116297"/>
-          <a:ext cx="74833" cy="65986"/>
+          <a:off x="1809466" y="6199048"/>
+          <a:ext cx="71816" cy="69865"/>
           <a:chOff x="6671553" y="7428695"/>
           <a:chExt cx="117950" cy="80709"/>
         </a:xfrm>
@@ -7292,7 +7327,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9897987" y="7090377"/>
+          <a:off x="9894970" y="7192523"/>
           <a:ext cx="415095" cy="384817"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
@@ -7569,8 +7604,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9411646" y="7089077"/>
-          <a:ext cx="428521" cy="340811"/>
+          <a:off x="9411646" y="7191223"/>
+          <a:ext cx="425504" cy="340811"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -7806,8 +7841,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11409563" y="4596981"/>
-          <a:ext cx="412191" cy="377699"/>
+          <a:off x="11400512" y="4660337"/>
+          <a:ext cx="409175" cy="385457"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -8083,8 +8118,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13385601" y="4596981"/>
-          <a:ext cx="415250" cy="377699"/>
+          <a:off x="13367499" y="4660337"/>
+          <a:ext cx="412234" cy="385457"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -8411,8 +8446,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11399835" y="5213160"/>
-          <a:ext cx="412191" cy="379258"/>
+          <a:off x="11390784" y="5288153"/>
+          <a:ext cx="409175" cy="379258"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -8688,8 +8723,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13375873" y="5153144"/>
-          <a:ext cx="415250" cy="378479"/>
+          <a:off x="13357771" y="5224258"/>
+          <a:ext cx="412234" cy="382358"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -9346,8 +9381,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9411646" y="4593736"/>
-          <a:ext cx="428521" cy="337253"/>
+          <a:off x="9411646" y="4657092"/>
+          <a:ext cx="425504" cy="341132"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -9583,8 +9618,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9417089" y="5158119"/>
-          <a:ext cx="428521" cy="337252"/>
+          <a:off x="9417089" y="5229233"/>
+          <a:ext cx="425504" cy="341131"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -10157,8 +10192,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="10000716" y="1600863"/>
-          <a:ext cx="1059975" cy="325887"/>
+          <a:off x="9986925" y="1621550"/>
+          <a:ext cx="1075490" cy="325887"/>
           <a:chOff x="9413447" y="2690132"/>
           <a:chExt cx="1064052" cy="325887"/>
         </a:xfrm>
@@ -11602,8 +11637,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="13526426" y="1722589"/>
-          <a:ext cx="1159903" cy="179621"/>
+          <a:off x="13494533" y="1743276"/>
+          <a:ext cx="1175418" cy="179621"/>
           <a:chOff x="9299804" y="2690133"/>
           <a:chExt cx="1177696" cy="179621"/>
         </a:xfrm>
@@ -12642,8 +12677,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="10052002" y="1728452"/>
-          <a:ext cx="1159903" cy="179615"/>
+          <a:off x="10038211" y="1749139"/>
+          <a:ext cx="1175418" cy="179615"/>
           <a:chOff x="9299804" y="2690139"/>
           <a:chExt cx="1177696" cy="179615"/>
         </a:xfrm>
@@ -12996,8 +13031,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11409563" y="8326385"/>
-          <a:ext cx="412191" cy="399680"/>
+          <a:off x="11400512" y="8447926"/>
+          <a:ext cx="409175" cy="407868"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -13324,8 +13359,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11399835" y="8964544"/>
-          <a:ext cx="412191" cy="415893"/>
+          <a:off x="11390784" y="9098153"/>
+          <a:ext cx="409175" cy="424082"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -13601,8 +13636,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13375873" y="8920138"/>
-          <a:ext cx="415250" cy="407787"/>
+          <a:off x="13357771" y="9053747"/>
+          <a:ext cx="412234" cy="415976"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -13878,8 +13913,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9411646" y="8323140"/>
-          <a:ext cx="428521" cy="359234"/>
+          <a:off x="9411646" y="8444681"/>
+          <a:ext cx="425504" cy="363543"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -14115,8 +14150,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9417089" y="8909504"/>
-          <a:ext cx="428521" cy="366559"/>
+          <a:off x="9417089" y="9039233"/>
+          <a:ext cx="425504" cy="374749"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -14405,8 +14440,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11403147" y="9643280"/>
-          <a:ext cx="412191" cy="415892"/>
+          <a:off x="11394096" y="9788956"/>
+          <a:ext cx="409175" cy="424081"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -14682,8 +14717,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13379185" y="9643280"/>
-          <a:ext cx="415250" cy="407786"/>
+          <a:off x="13361083" y="9788956"/>
+          <a:ext cx="412234" cy="415975"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -15340,8 +15375,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9420401" y="9618431"/>
-          <a:ext cx="428521" cy="366559"/>
+          <a:off x="9420401" y="9764107"/>
+          <a:ext cx="425504" cy="374748"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -15577,8 +15612,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15284942" y="9618431"/>
-          <a:ext cx="420029" cy="407786"/>
+          <a:off x="15254772" y="9764107"/>
+          <a:ext cx="420029" cy="415975"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -16301,8 +16336,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="9997053" y="12096680"/>
-          <a:ext cx="1067302" cy="325887"/>
+          <a:off x="9981322" y="12295153"/>
+          <a:ext cx="1086696" cy="325887"/>
           <a:chOff x="9413447" y="2690132"/>
           <a:chExt cx="1064052" cy="325887"/>
         </a:xfrm>
@@ -17409,8 +17444,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="10048339" y="12224269"/>
-          <a:ext cx="1167230" cy="179615"/>
+          <a:off x="10032608" y="12422742"/>
+          <a:ext cx="1186624" cy="179615"/>
           <a:chOff x="9299804" y="2690139"/>
           <a:chExt cx="1177696" cy="179615"/>
         </a:xfrm>
@@ -17768,8 +17803,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="10765407" y="12221640"/>
-          <a:ext cx="970482" cy="178510"/>
+          <a:off x="10746659" y="12420113"/>
+          <a:ext cx="989876" cy="178510"/>
           <a:chOff x="9413446" y="2690140"/>
           <a:chExt cx="913694" cy="179615"/>
         </a:xfrm>
@@ -19797,7 +19832,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="2807372" y="14341934"/>
+          <a:off x="2804355" y="14565621"/>
           <a:ext cx="335451" cy="62496"/>
           <a:chOff x="4100765" y="14179199"/>
           <a:chExt cx="335451" cy="62496"/>
@@ -19928,8 +19963,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="875781" y="13723082"/>
-          <a:ext cx="428520" cy="329926"/>
+          <a:off x="872764" y="13946769"/>
+          <a:ext cx="425503" cy="329926"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -20267,7 +20302,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10525013" y="7367164"/>
+          <a:off x="10518979" y="7469310"/>
           <a:ext cx="335451" cy="59797"/>
           <a:chOff x="4100765" y="14179199"/>
           <a:chExt cx="335451" cy="62496"/>
@@ -20398,8 +20433,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2798963" y="13724861"/>
-          <a:ext cx="338923" cy="363045"/>
+          <a:off x="2792929" y="13948548"/>
+          <a:ext cx="341940" cy="363045"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -20675,8 +20710,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="929132" y="14338857"/>
-          <a:ext cx="338923" cy="363045"/>
+          <a:off x="926115" y="14562544"/>
+          <a:ext cx="335906" cy="363045"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -20952,7 +20987,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="2813234" y="14976447"/>
+          <a:off x="2810217" y="15200134"/>
           <a:ext cx="335451" cy="62496"/>
           <a:chOff x="4100765" y="14179199"/>
           <a:chExt cx="335451" cy="62496"/>
@@ -21083,7 +21118,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000" flipH="1" flipV="1">
-          <a:off x="870135" y="14976447"/>
+          <a:off x="867118" y="15200134"/>
           <a:ext cx="335451" cy="62496"/>
           <a:chOff x="4100765" y="14179199"/>
           <a:chExt cx="335451" cy="62496"/>
@@ -21536,8 +21571,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2800428" y="16664423"/>
-          <a:ext cx="338923" cy="363346"/>
+          <a:off x="2794394" y="16908367"/>
+          <a:ext cx="341940" cy="371104"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -21813,8 +21848,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4499508" y="16664423"/>
-          <a:ext cx="399132" cy="363346"/>
+          <a:off x="4505542" y="16908367"/>
+          <a:ext cx="399132" cy="371104"/>
           <a:chOff x="9439275" y="5432246"/>
           <a:chExt cx="415095" cy="384611"/>
         </a:xfrm>
@@ -22471,8 +22506,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="875781" y="16661178"/>
-          <a:ext cx="428520" cy="337253"/>
+          <a:off x="872764" y="16905122"/>
+          <a:ext cx="425503" cy="341132"/>
           <a:chOff x="9410700" y="4685550"/>
           <a:chExt cx="429986" cy="338207"/>
         </a:xfrm>
@@ -23027,7 +23062,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>perm</a:t>
+            <a:t>resting</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -23104,6 +23139,6230 @@
               </a:solidFill>
             </a:rPr>
             <a:t>imposed</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>483577</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>124557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14653</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="462" name="Right Brace 461">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A52C39A0-BFEB-D255-38B4-34873B78A710}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5517173" y="16361019"/>
+          <a:ext cx="65942" cy="278423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>515815</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>108438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>479180</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>93785</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="463" name="TextBox 462">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A5C5116-E535-AC47-AFA5-AED3D9A99815}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5549411" y="16344900"/>
+          <a:ext cx="1033096" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1400"/>
+            <a:t>G</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1400" baseline="-25000"/>
+            <a:t>k</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>507022</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>55684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>470387</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>41031</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="464" name="TextBox 463">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D38ABD2-940A-33BF-D8A7-05E29F4C82DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5540618" y="16094319"/>
+          <a:ext cx="1033096" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1400"/>
+            <a:t>Q</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1400" baseline="-25000"/>
+            <a:t>k</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="461" name="Straight Connector 460">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20AF8C69-B1DA-40C2-8BDE-DFC1F11B3CB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1836964" y="883104"/>
+          <a:ext cx="0" cy="7417253"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="lgDashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="465" name="Straight Connector 464">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4923D6EE-174C-4346-B7D6-8965A16BCAA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2898321" y="883104"/>
+          <a:ext cx="0" cy="7417253"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="lgDashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="466" name="Straight Connector 465">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52266F22-7464-45CC-8716-A8D895A6EB7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3959679" y="883104"/>
+          <a:ext cx="0" cy="7417253"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="lgDashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="467" name="Straight Connector 466">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{769F063D-F29E-414F-82FD-04249AFF55A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5021036" y="883104"/>
+          <a:ext cx="0" cy="7417253"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="lgDashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="468" name="Straight Connector 467">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93FD2FAD-D2F4-4D67-81B9-F53F657261A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6082393" y="883104"/>
+          <a:ext cx="0" cy="7417253"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="lgDashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="469" name="Straight Connector 468">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D4F0A49-5AE9-4C4B-B0ED-3D3A17D8A9BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="1451202"/>
+          <a:ext cx="6304189" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="lgDashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="471" name="Straight Connector 470">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D35137A-D16B-42BD-8427-FE73A660E3D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="3079977"/>
+          <a:ext cx="6304189" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="lgDashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="472" name="Straight Connector 471">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD8F2AC1-B373-4C67-9F7F-E1F2AE6258A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581025" y="4695145"/>
+          <a:ext cx="6304189" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="lgDashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="473" name="Straight Connector 472">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E0CCBC2-3ECC-4FDB-BE82-55BB252F410D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="6310313"/>
+          <a:ext cx="6304189" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="lgDashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="474" name="Straight Connector 473">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{219DD42F-9763-4DB1-AF09-A5F5116A74E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="7925481"/>
+          <a:ext cx="6304189" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="lgDashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>526677</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="355" name="Rectangle 354">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E2EB0CC-7D00-46D2-BD0B-6CC9005587DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1859376" y="1469571"/>
+          <a:ext cx="4219015" cy="6444984"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="356" name="Oval 355">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87CF5A80-5A9A-46F1-B302-1C3B6264D470}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="993321" y="356508"/>
+          <a:ext cx="431347" cy="517072"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1600" b="1"/>
+            <a:t>A</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="370" name="Oval 369">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B24F971-623E-4345-9263-5D392B32101E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1615168" y="356508"/>
+          <a:ext cx="431346" cy="517072"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1600" b="1"/>
+            <a:t>B</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="375" name="Oval 374">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4350159-E769-4001-BDE9-253FDEC5B255}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2681968" y="356508"/>
+          <a:ext cx="425903" cy="517072"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1600" b="1"/>
+            <a:t>C</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="376" name="Oval 375">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{290C3494-455B-4F92-9316-FAC3D0E4FFFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743325" y="356508"/>
+          <a:ext cx="425904" cy="517072"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1600" b="1"/>
+            <a:t>D</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="384" name="Oval 383">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1887B8A-F8F5-40A9-976B-61E0411F4E30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4785632" y="356508"/>
+          <a:ext cx="425904" cy="517072"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1600" b="1"/>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="385" name="Oval 384">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2780204A-BE62-4A8B-88FF-441B019F7657}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5885089" y="356508"/>
+          <a:ext cx="425904" cy="517072"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1600" b="1"/>
+            <a:t>F</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="386" name="Oval 385">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D41237-F4A6-400B-92A4-D6EFCDFD9A48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6482443" y="356508"/>
+          <a:ext cx="431346" cy="517072"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1600" b="1"/>
+            <a:t>G</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="387" name="Straight Connector 386">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85E7E2CA-6E42-4452-A4E9-B96CB36EBC96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1224643" y="883104"/>
+          <a:ext cx="0" cy="7417253"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="lgDashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="388" name="Straight Connector 387">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D02D8C7-F227-40A2-ACE9-29716BFDDC07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6704239" y="883104"/>
+          <a:ext cx="0" cy="7417253"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="lgDashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="389" name="Oval 388">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50EFC025-CC99-4BB8-BB49-E95B9EAE346D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="1194707"/>
+          <a:ext cx="428625" cy="526597"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1600" b="1"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="390" name="Oval 389">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89F7B9F2-DAEF-4B86-A9E3-7FD3D6B288BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="2809875"/>
+          <a:ext cx="428625" cy="526596"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1600" b="1"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="391" name="Oval 390">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5862F37C-6541-49A4-A5B5-560B830D84FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="4425043"/>
+          <a:ext cx="428625" cy="526596"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1600" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="392" name="Oval 391">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{630D8575-F883-47F2-9DD3-EC698022C95B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="6040211"/>
+          <a:ext cx="428625" cy="526596"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1600" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="393" name="Oval 392">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825D29E3-7D56-4898-89B1-EB7EDAD96E55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="7655379"/>
+          <a:ext cx="428625" cy="526596"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1600" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>180978</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="394" name="Straight Connector 393">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2B615A-0333-4FFC-B724-E109DA585F78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="726621" y="1322615"/>
+          <a:ext cx="0" cy="6750506"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>65689</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>137948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>164223</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>45982</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="395" name="Straight Connector 394">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0123B46-DB04-452C-813B-2F8FEDC1C39F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="678010" y="1403412"/>
+          <a:ext cx="98534" cy="112141"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>67002</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>152405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>165536</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>60439</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="396" name="Straight Connector 395">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C839DFB-8F95-4B8F-A90C-69F3F966F288}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="679323" y="3023512"/>
+          <a:ext cx="98534" cy="112141"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>61746</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>166862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>160280</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>74896</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="397" name="Straight Connector 396">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C01027F-0CE8-4D67-9A85-FB664DC46845}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674067" y="4643612"/>
+          <a:ext cx="98534" cy="112141"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63059</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>174750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161593</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>82784</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="398" name="Straight Connector 397">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B7BBA0F-4C03-45CF-AC9D-35416E1E56F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="675380" y="6257143"/>
+          <a:ext cx="98534" cy="112141"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>64372</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>182638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>162906</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>90672</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="399" name="Straight Connector 398">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328E0721-D77D-45CF-98A7-2EB19C1EF3AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676693" y="7870674"/>
+          <a:ext cx="98534" cy="112141"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>518077</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>41827</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="400" name="Straight Connector 399">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D744DFB-1D1F-4F45-831E-3BA3AF5143A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1130398" y="1086205"/>
+          <a:ext cx="5606143" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>540079</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>210799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>27699</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>77420</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="401" name="Straight Connector 400">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B62EC119-BC51-4A56-ABF8-1E8B1380796B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1152400" y="1027228"/>
+          <a:ext cx="99942" cy="111549"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>557961</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>203829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>45582</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>70450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="402" name="Straight Connector 401">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33BFED9-7459-49BB-8069-440C2919C12D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1782604" y="1020258"/>
+          <a:ext cx="99942" cy="111549"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>547989</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>212108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>35609</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>78729</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="403" name="Straight Connector 402">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76A59DE2-F50E-47DF-8909-95C92F8D517E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6630382" y="1028537"/>
+          <a:ext cx="99941" cy="111549"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>96930</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>244287</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="404" name="Freeform: Shape 403">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D936EBE-3FCB-438F-A0BC-2C3E936327CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4601695" y="20491076"/>
+          <a:ext cx="147357" cy="2202517"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 323850"/>
+            <a:gd name="connsiteY0" fmla="*/ 171450 h 2124075"/>
+            <a:gd name="connsiteX1" fmla="*/ 171450 w 323850"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2124075"/>
+            <a:gd name="connsiteX2" fmla="*/ 171450 w 323850"/>
+            <a:gd name="connsiteY2" fmla="*/ 2124075 h 2124075"/>
+            <a:gd name="connsiteX3" fmla="*/ 323850 w 323850"/>
+            <a:gd name="connsiteY3" fmla="*/ 1971675 h 2124075"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="323850" h="2124075">
+              <a:moveTo>
+                <a:pt x="0" y="171450"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="171450" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="171450" y="2124075"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="323850" y="1971675"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>433324</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>180428</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="280205" cy="1408655"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="405" name="TextBox 404">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A20E846-A241-4B0B-9066-6FAA0FF3F1B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3835981" y="21475535"/>
+          <a:ext cx="1408655" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1200"/>
+            <a:t>floor span direction</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>96930</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>244287</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="406" name="Freeform: Shape 405">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{693D334C-5478-47E8-8979-D81375974E5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4601695" y="23673547"/>
+          <a:ext cx="147357" cy="2213722"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 323850"/>
+            <a:gd name="connsiteY0" fmla="*/ 171450 h 2124075"/>
+            <a:gd name="connsiteX1" fmla="*/ 171450 w 323850"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2124075"/>
+            <a:gd name="connsiteX2" fmla="*/ 171450 w 323850"/>
+            <a:gd name="connsiteY2" fmla="*/ 2124075 h 2124075"/>
+            <a:gd name="connsiteX3" fmla="*/ 323850 w 323850"/>
+            <a:gd name="connsiteY3" fmla="*/ 1971675 h 2124075"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="323850" h="2124075">
+              <a:moveTo>
+                <a:pt x="0" y="171450"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="171450" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="171450" y="2124075"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="323850" y="1971675"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>433324</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>180428</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="280205" cy="1408655"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="407" name="TextBox 406">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C457B6A-3C50-48F2-9D2A-E258AC3C1A40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3835981" y="24658006"/>
+          <a:ext cx="1408655" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1200"/>
+            <a:t>floor span direction</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>482225</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>184682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>72406</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>74891</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="408" name="Group 407">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FAB4879-EF12-4E9A-BD54-4A807721EF54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6062754" y="26305594"/>
+          <a:ext cx="128064" cy="91915"/>
+          <a:chOff x="6671553" y="7428695"/>
+          <a:chExt cx="117950" cy="80709"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="409" name="Straight Connector 408">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B5FAA0D-C9E9-700E-5639-CBC9448F4725}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6671553" y="7469049"/>
+            <a:ext cx="117542" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="410" name="Straight Connector 409">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82EF0B72-30E0-303D-88CF-99378068AC4C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6789503" y="7428695"/>
+            <a:ext cx="0" cy="80709"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="411" name="Straight Connector 410">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C820DB3-BF42-455F-CA3B-00F3731D6F04}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6674391" y="7428695"/>
+            <a:ext cx="0" cy="80709"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>471638</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>179968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>54567</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>70177</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="412" name="Group 411">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9659F3BA-AB7E-4660-83C0-2851C04C2E52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3900638" y="26300880"/>
+          <a:ext cx="120811" cy="91915"/>
+          <a:chOff x="6671553" y="7428695"/>
+          <a:chExt cx="117950" cy="80709"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="413" name="Straight Connector 412">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E054160-4E9F-CAE1-3EEF-6DCADA2AFFA3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6671553" y="7469049"/>
+            <a:ext cx="117542" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="414" name="Straight Connector 413">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DADD632-5A30-4612-AE76-FA7285839F49}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6789503" y="7428695"/>
+            <a:ext cx="0" cy="80709"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="415" name="Straight Connector 414">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E385F93-A5D4-71A6-CB44-5AD292F83AFA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6674391" y="7428695"/>
+            <a:ext cx="0" cy="80709"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>558228</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>180267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>60947</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>70476</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="416" name="Group 415">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{171D2358-E97A-45D9-A62E-B9AB75039E08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1768463" y="26301179"/>
+          <a:ext cx="107837" cy="91915"/>
+          <a:chOff x="6671553" y="7428695"/>
+          <a:chExt cx="117950" cy="80709"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="417" name="Straight Connector 416">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5020CDD8-CB4D-B77A-74E3-A10E89EBD22A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6671553" y="7469049"/>
+            <a:ext cx="117542" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="418" name="Straight Connector 417">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A3915A3-CF5A-AFAF-ACC0-CEAF717B2FFB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6789503" y="7428695"/>
+            <a:ext cx="0" cy="80709"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="419" name="Straight Connector 418">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E47CFFCB-508F-C7D6-888F-08943645D638}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6674391" y="7428695"/>
+            <a:ext cx="0" cy="80709"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485797</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>164441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>75978</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>54650</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="420" name="Group 419">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20F3A26-94BB-4F1A-AD7F-7A5517ADD0A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6066326" y="23102882"/>
+          <a:ext cx="128064" cy="91915"/>
+          <a:chOff x="6671553" y="7428695"/>
+          <a:chExt cx="117950" cy="80709"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="421" name="Straight Connector 420">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F75E23-4DAA-37F9-86B9-ECC09D51DA41}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6671553" y="7469049"/>
+            <a:ext cx="117542" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="422" name="Straight Connector 421">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{086BC4EE-4A53-18B8-A052-46FE71B79ED5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6789503" y="7428695"/>
+            <a:ext cx="0" cy="80709"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="423" name="Straight Connector 422">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B6CA4C9-D6C0-DD65-443F-39776B7CBA1F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6674391" y="7428695"/>
+            <a:ext cx="0" cy="80709"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>489369</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>150153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>79550</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>40362</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="432" name="Group 431">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDDEFAF9-E59A-4D4D-9E2F-433AFD64F0D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6069898" y="19883712"/>
+          <a:ext cx="128064" cy="91915"/>
+          <a:chOff x="6671553" y="7428695"/>
+          <a:chExt cx="117950" cy="80709"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="433" name="Straight Connector 432">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9C5FD79-8D9B-06EF-A01E-508B26CDCF30}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6671553" y="7469049"/>
+            <a:ext cx="117542" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="435" name="Straight Connector 434">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5BD63E7-CE69-27E0-6F8F-41B44AACA86E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6789503" y="7428695"/>
+            <a:ext cx="0" cy="80709"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="436" name="Straight Connector 435">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{293ED232-5F11-7CC7-786B-01DF3FD14714}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6674391" y="7428695"/>
+            <a:ext cx="0" cy="80709"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>478782</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>145439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>61711</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>35648</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="437" name="Group 436">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE0A65FF-1922-4A7B-8A15-CAB1D5BEC86A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3907782" y="19878998"/>
+          <a:ext cx="120811" cy="91915"/>
+          <a:chOff x="6671553" y="7428695"/>
+          <a:chExt cx="117950" cy="80709"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="438" name="Straight Connector 437">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70741301-547D-5691-9707-851B0D6CE6D5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6671553" y="7469049"/>
+            <a:ext cx="117542" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="447" name="Straight Connector 446">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C7AC6D3-1C96-BA91-2C22-853D5DC281B2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6789503" y="7428695"/>
+            <a:ext cx="0" cy="80709"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="512" name="Straight Connector 511">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA019197-8804-15A1-5D05-D1CBDEC585D5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6674391" y="7428695"/>
+            <a:ext cx="0" cy="80709"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>565372</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>145738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>68091</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>35947</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="513" name="Group 512">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBB1710A-C04B-4D5B-92F1-225871BB82FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1775607" y="19879297"/>
+          <a:ext cx="107837" cy="91915"/>
+          <a:chOff x="6671553" y="7428695"/>
+          <a:chExt cx="117950" cy="80709"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="514" name="Straight Connector 513">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65C219A7-262B-2B67-AD01-401BA9CEAF22}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6671553" y="7469049"/>
+            <a:ext cx="117542" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="515" name="Straight Connector 514">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B389FD32-D2F2-AF97-3617-BFF6E1801A65}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6789503" y="7428695"/>
+            <a:ext cx="0" cy="80709"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="516" name="Straight Connector 515">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5A49FB3-7DE9-8E13-4F79-05A8D8D4349F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6674391" y="7428695"/>
+            <a:ext cx="0" cy="80709"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>527538</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>181707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>529264</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="517" name="Group 516">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9425F282-706E-46C6-AE6A-BC266E3AEBDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5032303" y="19915266"/>
+          <a:ext cx="1077490" cy="1633215"/>
+          <a:chOff x="9737481" y="2006111"/>
+          <a:chExt cx="1071457" cy="1554774"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="518" name="Flowchart: Collate 517">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199F5433-5E56-C58E-0A3C-8F333CDCA9D4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9743703" y="2014809"/>
+            <a:ext cx="1065235" cy="1540566"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartCollate">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="nl-NL" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="519" name="Straight Connector 518">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D684D9A-6354-103E-E906-8533C0A0CE98}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9737481" y="2014904"/>
+            <a:ext cx="0" cy="1545981"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="520" name="Straight Connector 519">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC5AD2E4-F8C7-13D4-61AA-E0D64366618F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10805746" y="2006111"/>
+            <a:ext cx="0" cy="1545981"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>131191</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>184407</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>424461</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>186287</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="523" name="Straight Connector 522">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94B2948F-8D5B-44DC-914E-3F44DB0F7DD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1968155" y="1449871"/>
+          <a:ext cx="1885306" cy="1880"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>75198</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>182579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>436993</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>182579</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="524" name="Straight Connector 523">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67182FDE-A186-4B27-87DA-38DA166A8728}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5096234" y="1448043"/>
+          <a:ext cx="892473" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>81064</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>23630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>408341</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>23630</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="525" name="Straight Connector 524">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60C609DB-ABB7-4C7C-9ED7-B44DF27320E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2979385" y="7915773"/>
+          <a:ext cx="857956" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>99382</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>19922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>420873</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>19922</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="526" name="Straight Connector 525">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C0BB03D-1752-49E5-A42D-C0653EEC7FB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4059061" y="7912065"/>
+          <a:ext cx="1913526" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="527" name="Straight Connector 526">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AB6CB4F-158E-485E-940A-8A00BF2AC950}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5014232" y="3122839"/>
+          <a:ext cx="1061357" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="528" name="Straight Connector 527">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9899DC91-6325-4C1E-9CBF-89B9DD9D4F9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6091918" y="1517196"/>
+          <a:ext cx="0" cy="1615168"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>23446</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>107705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>497498</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>24911</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="529" name="Group 528">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEC40418-5024-4E6B-9381-0D3A46D69F9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1838799" y="26430323"/>
+          <a:ext cx="1011934" cy="118912"/>
+          <a:chOff x="1845102" y="7537205"/>
+          <a:chExt cx="1009834" cy="107706"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="530" name="Straight Connector 529">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5ABEA84-D6C5-9A94-BABC-60FA296D04AD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1845102" y="7537205"/>
+            <a:ext cx="1009834" cy="107706"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="531" name="Straight Connector 530">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B075EFD-077F-E03C-AA9A-8BD7621B4E86}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="1845102" y="7537205"/>
+            <a:ext cx="1009834" cy="107706"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422674</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>589359</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="532" name="Group 531">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{890BF137-1831-4268-87D7-EAB0CF4BFF48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="16200000">
+          <a:off x="956003" y="25455914"/>
+          <a:ext cx="1520498" cy="166685"/>
+          <a:chOff x="1845102" y="7537205"/>
+          <a:chExt cx="1009834" cy="107706"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="533" name="Straight Connector 532">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA3596C1-F171-DFD8-DEB7-8E501A9C31E4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1845102" y="7537205"/>
+            <a:ext cx="1009834" cy="107706"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="534" name="Straight Connector 533">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD4FF6EB-6025-FCF3-6986-D3A2658AC497}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="1845102" y="7537205"/>
+            <a:ext cx="1009834" cy="107706"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>496529</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>186455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>46053</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>54613</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="535" name="Group 534">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33BA51AA-A2BF-48AD-B3C1-905A896F925E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="2849764" y="26307367"/>
+          <a:ext cx="87407" cy="69864"/>
+          <a:chOff x="6671553" y="7428695"/>
+          <a:chExt cx="117950" cy="80709"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="536" name="Straight Connector 535">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B498D099-0777-5E58-0FC2-76B821E4ADBE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6671553" y="7469049"/>
+            <a:ext cx="117542" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="537" name="Straight Connector 536">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D882119-639D-5FDE-42B3-83DB375423D9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6789503" y="7428695"/>
+            <a:ext cx="0" cy="80709"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="538" name="Straight Connector 537">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD35AEDF-6FC3-0788-3817-8D680A74F84B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6674391" y="7428695"/>
+            <a:ext cx="0" cy="80709"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>140241</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>34168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>467518</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>34168</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="539" name="Straight Connector 538">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C348FE98-FB1A-44BF-8782-78905F759E70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1977205" y="7926311"/>
+          <a:ext cx="857956" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>493522</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>148356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>43045</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>16514</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="540" name="Group 539">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09C5B263-6E83-4861-952A-80302EE8B275}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="4998287" y="19881915"/>
+          <a:ext cx="87405" cy="69864"/>
+          <a:chOff x="6671553" y="7428695"/>
+          <a:chExt cx="117950" cy="80709"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="541" name="Straight Connector 540">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2491414-81B0-FE31-71EA-CC23120297BD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6671553" y="7469049"/>
+            <a:ext cx="117542" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="542" name="Straight Connector 541">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3008119-77A9-2828-125D-79D5DF7A429F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6789503" y="7428695"/>
+            <a:ext cx="0" cy="80709"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="543" name="Straight Connector 542">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FC63346-D677-CDBD-911F-4BDF49E807B1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6674391" y="7428695"/>
+            <a:ext cx="0" cy="80709"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>97256</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>184585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>459052</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>184585</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="544" name="Straight Connector 543">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5BC19EE-84FA-4EF6-B0CE-638A6B22176A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4056935" y="1450049"/>
+          <a:ext cx="892474" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>470160</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>207139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>40607</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>73760</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="556" name="Straight Connector 555">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1F4766B-7EFC-4C67-B0B4-DE1FB7272303}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2837803" y="1023568"/>
+          <a:ext cx="101125" cy="111549"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>473468</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>210449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>43915</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>77070</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="557" name="Straight Connector 556">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC5F72B2-A3FC-4432-968D-F520074F42CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3902468" y="1026878"/>
+          <a:ext cx="101126" cy="111549"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>468493</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>213759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38940</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>80380</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="558" name="Straight Connector 557">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{232ED94C-A433-4711-83BD-0F84A811E55A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4958850" y="1030188"/>
+          <a:ext cx="101126" cy="111549"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>471801</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>217069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>42248</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>83690</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="559" name="Straight Connector 558">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C37B48D6-E305-4E9B-84E5-10B3F6011686}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6023515" y="1033498"/>
+          <a:ext cx="101126" cy="111549"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>599231</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>181489</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65929</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>49648</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="560" name="Group 559">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B4DB27-2567-478A-9A3D-ACC10C717D36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="1809466" y="24711165"/>
+          <a:ext cx="71816" cy="69865"/>
+          <a:chOff x="6671553" y="7428695"/>
+          <a:chExt cx="117950" cy="80709"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="561" name="Straight Connector 560">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54F13E89-4AB3-1CB2-FF47-6581553FE60D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6671553" y="7469049"/>
+            <a:ext cx="117542" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="562" name="Straight Connector 561">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AEC6B48-D449-B036-083F-3EF6797FC4C2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6789503" y="7428695"/>
+            <a:ext cx="0" cy="80709"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="563" name="Straight Connector 562">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{311B16F6-4042-2ACC-E5DF-11ED2645B9D2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6674391" y="7428695"/>
+            <a:ext cx="0" cy="80709"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="564" name="Rectangle 563">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B65F72C8-CC50-83FA-168B-982134E1A63F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1893794" y="21515294"/>
+          <a:ext cx="2061882" cy="3216088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>475210</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>159727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>58139</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>49936</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="424" name="Group 423">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{327661AA-2D92-471C-94F5-7DB285F20F64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3904210" y="23098168"/>
+          <a:ext cx="120811" cy="91915"/>
+          <a:chOff x="6671553" y="7428695"/>
+          <a:chExt cx="117950" cy="80709"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="425" name="Straight Connector 424">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBA5B331-1395-BE8B-FEBC-B4D51E7135A4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6671553" y="7469049"/>
+            <a:ext cx="117542" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="426" name="Straight Connector 425">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D223F669-2348-071B-2217-D43889A47552}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6789503" y="7428695"/>
+            <a:ext cx="0" cy="80709"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="427" name="Straight Connector 426">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A31456E-764B-C1AC-C5E5-59BD810117BC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6674391" y="7428695"/>
+            <a:ext cx="0" cy="80709"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561800</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>160026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>64519</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>50235</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="428" name="Group 427">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4F95B1F-4347-4120-85A3-4D826190CF3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1772035" y="23098467"/>
+          <a:ext cx="107837" cy="91915"/>
+          <a:chOff x="6671553" y="7428695"/>
+          <a:chExt cx="117950" cy="80709"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="429" name="Straight Connector 428">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4FD2BFF-CFC8-323D-C0D6-DB16C1DF5CC9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6671553" y="7469049"/>
+            <a:ext cx="117542" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="430" name="Straight Connector 429">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EF44683-C7D7-5D19-4328-33DABF24C02D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6789503" y="7428695"/>
+            <a:ext cx="0" cy="80709"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="431" name="Straight Connector 430">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{791837B9-0E51-755F-B808-8EABBB46C03F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6674391" y="7428695"/>
+            <a:ext cx="0" cy="80709"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>109640</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>8198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>431131</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>8198</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="522" name="Straight Connector 521">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40509378-2B45-4AC3-8C07-F3495093C7AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4069319" y="4689055"/>
+          <a:ext cx="1913526" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>145675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>145675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="566" name="Straight Arrow Connector 565">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DE1BC88-347C-C266-8A90-1E991FB1C24A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1893794" y="24854646"/>
+          <a:ext cx="2039471" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>337038</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>263769</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>168519</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="567" name="TextBox 566">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BAC19F7-FD17-D5EE-72A5-6D4B4C22BFD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2696307" y="24457269"/>
+          <a:ext cx="461597" cy="256442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6 m</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>154340</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>154340</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>23746</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="568" name="Straight Arrow Connector 567">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC406715-1952-5F2D-E909-325B2F812B7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4118205" y="21226096"/>
+          <a:ext cx="0" cy="3145015"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>115766</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>196360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>42497</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>57148</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="569" name="TextBox 568">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A694C47-02AE-E401-B6A8-926FCDC61575}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4079631" y="22975764"/>
+          <a:ext cx="461597" cy="256442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8 m</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>230841</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>123093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>556846</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>73270</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="571" name="Rectangle 570">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DABB4FA3-9DEA-AC36-5F19-0FEF264FD9C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6942303" y="21532362"/>
+          <a:ext cx="326005" cy="345831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>147915</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>197052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>470645</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="573" name="Rectangle 572">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0673556-939F-913C-90CB-5147D84853ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2501150" y="21521846"/>
+          <a:ext cx="322730" cy="3231948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>230841</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>123093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>556846</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>73270</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="572" name="Rectangle 571">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D93871F-5E64-4974-8FE1-1359395F36D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6954370" y="21851299"/>
+          <a:ext cx="326005" cy="353589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>125329</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>10026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>418599</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="521" name="Straight Connector 520">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C409E7-E9B4-4D96-A092-87FBA4903BDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1962293" y="4690883"/>
+          <a:ext cx="1885306" cy="1880"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>107576</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>107575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>526677</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>107575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="580" name="Straight Arrow Connector 579">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23A86515-57BE-E957-2A5C-EE3E32BF3385}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2460811" y="21432369"/>
+          <a:ext cx="419101" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>74820</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>195069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1551</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>51978</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="581" name="TextBox 580">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{320794B8-03A1-5E65-6C01-058D547E4B50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2428055" y="21116451"/>
+          <a:ext cx="464614" cy="260321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1 m</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -23379,10 +29638,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A5:AB90"/>
+  <dimension ref="A5:AB129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B72" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L90" sqref="L90"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V137" sqref="V137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23621,8 +29880,94 @@
         <v>21</v>
       </c>
     </row>
+    <row r="97" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I97" s="15"/>
+      <c r="J97" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K97" s="15"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+    </row>
+    <row r="103" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104" s="16"/>
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N110" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="16"/>
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="N113" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="16"/>
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+    </row>
+    <row r="128" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B128" s="2"/>
+    </row>
+    <row r="129" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="17">
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="A103:A104"/>
     <mergeCell ref="Y51:Z51"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
@@ -23634,7 +29979,7 @@
     <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="40" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>